--- a/input.xlsx
+++ b/input.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cbackup\IES\microgridtest_xuhang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Master Shi\Dropbox\WorkSpace\microgridOptimalDispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -30,9 +30,6 @@
     <t>光伏出力</t>
   </si>
   <si>
-    <t>电价</t>
-  </si>
-  <si>
     <t>冷负荷</t>
   </si>
   <si>
@@ -43,11 +40,15 @@
     <t>蒸汽负荷</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>电价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,7 +698,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -717,9 +718,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13097047244094487"/>
+          <c:x val="0.1309704724409449"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.844259842519685"/>
+          <c:w val="0.84425984251968522"/>
           <c:h val="0.71445829687955664"/>
         </c:manualLayout>
       </c:layout>
@@ -759,6 +760,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B73-45FA-9ED2-56E5868A5318}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1084,6 +1090,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B73-45FA-9ED2-56E5868A5318}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1409,6 +1420,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B73-45FA-9ED2-56E5868A5318}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1734,6 +1750,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B73-45FA-9ED2-56E5868A5318}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1744,11 +1765,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-491531936"/>
-        <c:axId val="-491527040"/>
+        <c:axId val="51493504"/>
+        <c:axId val="105112320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-491531936"/>
+        <c:axId val="51493504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1801,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1789,26 +1809,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="in"/>
@@ -1843,7 +1843,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-491527040"/>
+        <c:crossAx val="105112320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1853,7 +1853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-491527040"/>
+        <c:axId val="105112320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1890,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1899,26 +1898,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
@@ -1953,7 +1932,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-491531936"/>
+        <c:crossAx val="51493504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1967,7 +1946,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2026,566 +2004,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2605,7 +2027,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2666,7 +2094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2718,7 +2146,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2922,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2945,16 +2373,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2968,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E2">
         <v>1549.28</v>
@@ -2991,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E3">
         <v>1551.28</v>
@@ -3014,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E4">
         <v>1553.28</v>
@@ -3037,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E5">
         <v>1555.28</v>
@@ -3060,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E6">
         <v>1557.28</v>
@@ -3083,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E7">
         <v>1559.28</v>
@@ -3106,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E8">
         <v>1561.28</v>
@@ -3129,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E9">
         <v>1563.28</v>
@@ -3152,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E10">
         <v>1523.28</v>
@@ -3175,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E11">
         <v>1497.28</v>
@@ -3198,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E12">
         <v>1496.28</v>
@@ -3221,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E13">
         <v>1495.28</v>
@@ -3244,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E14">
         <v>1494.28</v>
@@ -3267,7 +2695,7 @@
         <v>0.122170075</v>
       </c>
       <c r="D15">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E15">
         <v>1493.28</v>
@@ -3290,7 +2718,7 @@
         <v>0.24434015000000001</v>
       </c>
       <c r="D16">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E16">
         <v>1377.28</v>
@@ -3313,7 +2741,7 @@
         <v>1.5096731000000001</v>
       </c>
       <c r="D17">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E17">
         <v>1379.28</v>
@@ -3336,7 +2764,7 @@
         <v>2.77500605</v>
       </c>
       <c r="D18">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E18">
         <v>1381.28</v>
@@ -3359,7 +2787,7 @@
         <v>5.9601544999999998</v>
       </c>
       <c r="D19">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E19">
         <v>1383.28</v>
@@ -3382,7 +2810,7 @@
         <v>9.1453029499999996</v>
       </c>
       <c r="D20">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E20">
         <v>1285.28</v>
@@ -3405,7 +2833,7 @@
         <v>13.94484173</v>
       </c>
       <c r="D21">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E21">
         <v>1287.28</v>
@@ -3428,7 +2856,7 @@
         <v>18.744380499999998</v>
       </c>
       <c r="D22">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E22">
         <v>1289.28</v>
@@ -3451,7 +2879,7 @@
         <v>26.916686049999999</v>
       </c>
       <c r="D23">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E23">
         <v>1291.28</v>
@@ -3474,7 +2902,7 @@
         <v>35.0889916</v>
       </c>
       <c r="D24">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E24">
         <v>1293.28</v>
@@ -3497,7 +2925,7 @@
         <v>47.995387649999998</v>
       </c>
       <c r="D25">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E25">
         <v>1295.28</v>
@@ -3520,7 +2948,7 @@
         <v>60.901783700000003</v>
       </c>
       <c r="D26">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E26">
         <v>1297.28</v>
@@ -3543,7 +2971,7 @@
         <v>74.397214079999998</v>
       </c>
       <c r="D27">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E27">
         <v>1299.28</v>
@@ -3566,7 +2994,7 @@
         <v>87.892644450000006</v>
       </c>
       <c r="D28">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E28">
         <v>1301.28</v>
@@ -3589,7 +3017,7 @@
         <v>110.5464674</v>
       </c>
       <c r="D29">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E29">
         <v>1303.28</v>
@@ -3612,7 +3040,7 @@
         <v>133.2002904</v>
       </c>
       <c r="D30">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E30">
         <v>1305.28</v>
@@ -3635,7 +3063,7 @@
         <v>160.94598769999999</v>
       </c>
       <c r="D31">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E31">
         <v>1207.28</v>
@@ -3658,7 +3086,7 @@
         <v>188.69168500000001</v>
       </c>
       <c r="D32">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E32">
         <v>1209.28</v>
@@ -3681,7 +3109,7 @@
         <v>203.31718860000001</v>
       </c>
       <c r="D33">
-        <v>0.36470000000000002</v>
+        <v>0.35220001000000001</v>
       </c>
       <c r="E33">
         <v>1211.28</v>
@@ -3704,7 +3132,7 @@
         <v>217.94269209999999</v>
       </c>
       <c r="D34">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E34">
         <v>1213.28</v>
@@ -3727,7 +3155,7 @@
         <v>238.2141986</v>
       </c>
       <c r="D35">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E35">
         <v>1215.28</v>
@@ -3750,7 +3178,7 @@
         <v>258.485705</v>
       </c>
       <c r="D36">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E36">
         <v>1319.0320000000002</v>
@@ -3773,7 +3201,7 @@
         <v>265.54975350000001</v>
       </c>
       <c r="D37">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E37">
         <v>1380.9760000000001</v>
@@ -3796,7 +3224,7 @@
         <v>272.6138019</v>
       </c>
       <c r="D38">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E38">
         <v>1442.92</v>
@@ -3819,7 +3247,7 @@
         <v>286.39720449999999</v>
       </c>
       <c r="D39">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E39">
         <v>1408.04</v>
@@ -3842,7 +3270,7 @@
         <v>300.1806072</v>
       </c>
       <c r="D40">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E40">
         <v>1473.44</v>
@@ -3865,7 +3293,7 @@
         <v>310.25963860000002</v>
       </c>
       <c r="D41">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E41">
         <v>1438.944</v>
@@ -3888,7 +3316,7 @@
         <v>320.33866999999998</v>
       </c>
       <c r="D42">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E42">
         <v>1604.4480000000001</v>
@@ -3911,7 +3339,7 @@
         <v>327.3678127</v>
       </c>
       <c r="D43">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E43">
         <v>1770.048</v>
@@ -3934,7 +3362,7 @@
         <v>334.39695540000002</v>
       </c>
       <c r="D44">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E44">
         <v>1935.6480000000001</v>
@@ -3957,7 +3385,7 @@
         <v>336.11169969999997</v>
       </c>
       <c r="D45">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E45">
         <v>1958.712</v>
@@ -3980,7 +3408,7 @@
         <v>337.82644399999998</v>
       </c>
       <c r="D46">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E46">
         <v>1981.7760000000003</v>
@@ -4003,7 +3431,7 @@
         <v>343.89131570000001</v>
       </c>
       <c r="D47">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E47">
         <v>2009.6400000000003</v>
@@ -4026,7 +3454,7 @@
         <v>349.95618739999998</v>
       </c>
       <c r="D48">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E48">
         <v>2037.5040000000001</v>
@@ -4049,7 +3477,7 @@
         <v>354.17978160000001</v>
       </c>
       <c r="D49">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E49">
         <v>2091.288</v>
@@ -4072,7 +3500,7 @@
         <v>358.40337570000003</v>
       </c>
       <c r="D50">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E50">
         <v>2145.0720000000001</v>
@@ -4095,7 +3523,7 @@
         <v>355.48874669999998</v>
       </c>
       <c r="D51">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E51">
         <v>2193.1680000000001</v>
@@ -4118,7 +3546,7 @@
         <v>352.57411769999999</v>
       </c>
       <c r="D52">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E52">
         <v>2241.2640000000001</v>
@@ -4141,7 +3569,7 @@
         <v>347.5825974</v>
       </c>
       <c r="D53">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E53">
         <v>2279.4720000000002</v>
@@ -4164,7 +3592,7 @@
         <v>342.59107699999998</v>
       </c>
       <c r="D54">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E54">
         <v>2317.6800000000003</v>
@@ -4187,7 +3615,7 @@
         <v>335.38740569999999</v>
       </c>
       <c r="D55">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E55">
         <v>2355.864</v>
@@ -4210,7 +3638,7 @@
         <v>328.18373430000003</v>
       </c>
       <c r="D56">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E56">
         <v>2394.0480000000002</v>
@@ -4233,7 +3661,7 @@
         <v>317.71637659999999</v>
       </c>
       <c r="D57">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E57">
         <v>2404.4160000000002</v>
@@ -4256,7 +3684,7 @@
         <v>307.24901890000001</v>
       </c>
       <c r="D58">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E58">
         <v>2414.7840000000001</v>
@@ -4279,7 +3707,7 @@
         <v>302.94688689999998</v>
       </c>
       <c r="D59">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E59">
         <v>2429.904</v>
@@ -4302,7 +3730,7 @@
         <v>298.64475479999999</v>
       </c>
       <c r="D60">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E60">
         <v>2445.0239999999999</v>
@@ -4325,7 +3753,7 @@
         <v>275.68114350000002</v>
       </c>
       <c r="D61">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E61">
         <v>2470.6560000000004</v>
@@ -4348,7 +3776,7 @@
         <v>252.7175321</v>
       </c>
       <c r="D62">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E62">
         <v>2496.288</v>
@@ -4371,7 +3799,7 @@
         <v>236.1373073</v>
       </c>
       <c r="D63">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E63">
         <v>2521.5840000000007</v>
@@ -4394,7 +3822,7 @@
         <v>219.55708240000001</v>
       </c>
       <c r="D64">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E64">
         <v>2546.8800000000006</v>
@@ -4417,7 +3845,7 @@
         <v>205.67332579999999</v>
       </c>
       <c r="D65">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E65">
         <v>2521.6320000000001</v>
@@ -4440,7 +3868,7 @@
         <v>191.78956909999999</v>
       </c>
       <c r="D66">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E66">
         <v>2496.3840000000005</v>
@@ -4463,7 +3891,7 @@
         <v>174.74248</v>
       </c>
       <c r="D67">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E67">
         <v>2470.7040000000002</v>
@@ -4486,7 +3914,7 @@
         <v>157.695391</v>
       </c>
       <c r="D68">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E68">
         <v>2445.0239999999999</v>
@@ -4509,7 +3937,7 @@
         <v>133.71078679999999</v>
       </c>
       <c r="D69">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E69">
         <v>2374.9680000000003</v>
@@ -4532,7 +3960,7 @@
         <v>109.7261826</v>
       </c>
       <c r="D70">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E70">
         <v>2304.9119999999998</v>
@@ -4555,7 +3983,7 @@
         <v>84.681316679999995</v>
       </c>
       <c r="D71">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E71">
         <v>2234.8800000000006</v>
@@ -4578,7 +4006,7 @@
         <v>59.636450750000002</v>
       </c>
       <c r="D72">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E72">
         <v>2164.848</v>
@@ -4601,7 +4029,7 @@
         <v>48.619327679999998</v>
       </c>
       <c r="D73">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E73">
         <v>2128.944</v>
@@ -4624,7 +4052,7 @@
         <v>37.6022046</v>
       </c>
       <c r="D74">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E74">
         <v>2093.0400000000004</v>
@@ -4647,7 +4075,7 @@
         <v>27.741334049999999</v>
       </c>
       <c r="D75">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E75">
         <v>2065.2720000000004</v>
@@ -4670,7 +4098,7 @@
         <v>17.880463500000001</v>
       </c>
       <c r="D76">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E76">
         <v>2037.5040000000001</v>
@@ -4693,7 +4121,7 @@
         <v>12.8889432</v>
       </c>
       <c r="D77">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E77">
         <v>1935.6239999999998</v>
@@ -4716,7 +4144,7 @@
         <v>7.8974228999999996</v>
       </c>
       <c r="D78">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E78">
         <v>1833.7439999999999</v>
@@ -4739,7 +4167,7 @@
         <v>4.6250100999999999</v>
       </c>
       <c r="D79">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E79">
         <v>1731.864</v>
@@ -4762,7 +4190,7 @@
         <v>1.3525973</v>
       </c>
       <c r="D80">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E80">
         <v>1629.9840000000002</v>
@@ -4785,7 +4213,7 @@
         <v>0.711204375</v>
       </c>
       <c r="D81">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E81">
         <v>1540.848</v>
@@ -4808,7 +4236,7 @@
         <v>6.9811449999999997E-2</v>
       </c>
       <c r="D82">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E82">
         <v>1551.712</v>
@@ -4831,7 +4259,7 @@
         <v>3.4905724999999999E-2</v>
       </c>
       <c r="D83">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E83">
         <v>1562.576</v>
@@ -4854,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E84">
         <v>1573.4400000000003</v>
@@ -4877,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E85">
         <v>1585.303999999996</v>
@@ -4900,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E86">
         <v>1580</v>
@@ -4923,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E87">
         <v>1574.696000000004</v>
@@ -4946,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E88">
         <v>1569.392000000008</v>
@@ -4969,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>1.1901999999999999</v>
+        <v>1.04989998</v>
       </c>
       <c r="E89">
         <v>1564.088000000012</v>
@@ -4992,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E90">
         <v>1558.784000000016</v>
@@ -5015,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E91">
         <v>1553.48000000002</v>
@@ -5038,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E92">
         <v>1548.176000000024</v>
@@ -5061,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E93">
         <v>1542.872000000028</v>
@@ -5084,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E94">
         <v>1537.568000000032</v>
@@ -5107,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E95">
         <v>1532.264000000036</v>
@@ -5130,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E96">
         <v>1526.9600000000401</v>
@@ -5153,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>0.75409999999999999</v>
+        <v>0.65550003000000001</v>
       </c>
       <c r="E97">
         <v>1521.6560000000441</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -27,9 +27,6 @@
     <t>直流负荷</t>
   </si>
   <si>
-    <t>光伏出力</t>
-  </si>
-  <si>
     <t>冷负荷</t>
   </si>
   <si>
@@ -42,6 +39,10 @@
   </si>
   <si>
     <t>电价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>光伏出力</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -752,10 +753,298 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>input!$H$2:$H$97</c:f>
+              <c:f>input!$C$2:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>7200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6513.6444947091004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8564.6300059293517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7847.230367680063</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8482.7377263546987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7238.0005545745043</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6805.0406557779534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6236.5378440187706</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8418.8341926531702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5629.2011439827329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7779.4527702059604</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8282.1252143249385</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8780.4245597044483</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7746.8449292489358</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5950.6561231413289</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8872.9519222174349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6623.9822703448126</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5413.9261322267575</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9582.6935986499248</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7108.0051311148318</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6927.3076874149956</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6427.9255025149359</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7374.4416187110764</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6005.8809497844359</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7110.850160087859</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7009.4854840210537</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7359.9667499220814</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5672.3838779616844</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6923.8316122636788</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5222.7893400447974</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7996.1664892009612</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8478.6962706297873</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5159.1908111842204</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8552.1577410807677</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7660.7359904318555</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6485.7518950988815</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7070.3465638103517</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7698.9834606872528</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6311.5886760692947</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5062.5736999542241</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7135.3045607734384</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8341.3767107285021</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6866.7444105548684</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6416.9835412400489</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6548.9249485661894</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5825.2009937553712</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8229.6630199564879</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4480.5972590747533</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5473.153065814854</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7816.1598755868181</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9388.9972123081534</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8326.1041669765418</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8670.7190084135927</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7633.4896700209883</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6606.9277312349586</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9595.6163714435806</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7153.2120630816535</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6841.9550500915539</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8122.1610127282756</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7061.2318618425606</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7957.5054772481089</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7131.9169624876122</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5680.6908365448999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7650.8683452772675</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5732.3902791273977</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5973.3653753001608</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8200.4228082294703</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8153.106256030972</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8247.6796325377964</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6929.0350475494488</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4960.1135962118278</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4768.0468667537234</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7762.4981118086789</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8471.7648594565744</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8491.0898925207621</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7044.8559347529772</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3766.0060411682666</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6899.0497448179058</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6787.8969339191699</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6329.91981944504</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5537.7391295837724</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7282.1557852254082</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6312.6019416711761</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7329.5759668123537</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7217.9846983645393</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6708.2654529749825</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8422.0366511746633</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6836.1994496930683</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7413.7796335684343</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6294.5795732732549</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8622.2288983208236</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7638.1747139158924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1459,292 +1748,292 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
                 <c:pt idx="0">
-                  <c:v>1549.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1551.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1553.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1555.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1557.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1559.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1561.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1563.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1523.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1497.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1496.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1495.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1494.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1493.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1377.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1379.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1381.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1383.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1285.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1287.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1289.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1291.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1293.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1295.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1297.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1299.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1301.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1303.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1305.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1207.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1209.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1211.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1213.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1215.28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1319.0320000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1380.9760000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1442.92</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1408.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1473.44</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1438.944</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1604.4480000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1770.048</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1935.6480000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1958.712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1981.7760000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2009.6400000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2037.5040000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2091.288</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2145.0720000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2193.1680000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2241.2640000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2279.4720000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2317.6800000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2355.864</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2394.0480000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2404.4160000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2414.7840000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2429.904</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2445.0239999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2470.6560000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2496.288</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2521.5840000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2546.8800000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2521.6320000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2496.3840000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2470.7040000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2445.0239999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2374.9680000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2304.9119999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2234.8800000000006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2164.848</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2128.944</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2093.0400000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2065.2720000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2037.5040000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1935.6239999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1833.7439999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1731.864</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1629.9840000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1540.848</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1551.712</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1562.576</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1573.4400000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1585.303999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1580</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1574.696000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1569.392000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1564.088000000012</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1558.784000000016</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1553.48000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1548.176000000024</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1542.872000000028</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1537.568000000032</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1532.264000000036</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1526.9600000000401</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1521.6560000000441</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2094,7 +2383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2146,7 +2435,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2351,7 +2640,7 @@
   <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2370,19 +2659,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2390,16 +2679,16 @@
         <v>5000</v>
       </c>
       <c r="B2">
-        <v>19.5682133</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="D2">
         <v>0.35220001000000001</v>
       </c>
       <c r="E2">
-        <v>1549.28</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>808.4</v>
@@ -2413,16 +2702,16 @@
         <v>4525</v>
       </c>
       <c r="B3">
-        <v>19.346941950000001</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6513.6444947091004</v>
       </c>
       <c r="D3">
         <v>0.35220001000000001</v>
       </c>
       <c r="E3">
-        <v>1551.28</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>810.42399999999998</v>
@@ -2436,16 +2725,16 @@
         <v>4050</v>
       </c>
       <c r="B4">
-        <v>19.125670599999999</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>8564.6300059293517</v>
       </c>
       <c r="D4">
         <v>0.35220001000000001</v>
       </c>
       <c r="E4">
-        <v>1553.28</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>812.44799999999998</v>
@@ -2459,16 +2748,16 @@
         <v>4775</v>
       </c>
       <c r="B5">
-        <v>19.166312300000001</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7847.230367680063</v>
       </c>
       <c r="D5">
         <v>0.35220001000000001</v>
       </c>
       <c r="E5">
-        <v>1555.28</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>814.47199999999998</v>
@@ -2482,16 +2771,16 @@
         <v>5500</v>
       </c>
       <c r="B6">
-        <v>19.206954</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>8482.7377263546987</v>
       </c>
       <c r="D6">
         <v>0.35220001000000001</v>
       </c>
       <c r="E6">
-        <v>1557.28</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>796.49599999999998</v>
@@ -2505,16 +2794,16 @@
         <v>5275</v>
       </c>
       <c r="B7">
-        <v>19.22133745</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>7238.0005545745043</v>
       </c>
       <c r="D7">
         <v>0.35220001000000001</v>
       </c>
       <c r="E7">
-        <v>1559.28</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>788.52</v>
@@ -2528,16 +2817,16 @@
         <v>5050</v>
       </c>
       <c r="B8">
-        <v>19.2357209</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>6805.0406557779534</v>
       </c>
       <c r="D8">
         <v>0.35220001000000001</v>
       </c>
       <c r="E8">
-        <v>1561.28</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>780.54399999999998</v>
@@ -2551,16 +2840,16 @@
         <v>5017.5</v>
       </c>
       <c r="B9">
-        <v>19.272683099999998</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>6236.5378440187706</v>
       </c>
       <c r="D9">
         <v>0.35220001000000001</v>
       </c>
       <c r="E9">
-        <v>1563.28</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>782.56799999999998</v>
@@ -2574,16 +2863,16 @@
         <v>4985</v>
       </c>
       <c r="B10">
-        <v>19.3096453</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>8418.8341926531702</v>
       </c>
       <c r="D10">
         <v>0.35220001000000001</v>
       </c>
       <c r="E10">
-        <v>1523.28</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>774.59199999999998</v>
@@ -2597,16 +2886,16 @@
         <v>4957.5</v>
       </c>
       <c r="B11">
-        <v>19.5021497</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>5629.2011439827329</v>
       </c>
       <c r="D11">
         <v>0.35220001000000001</v>
       </c>
       <c r="E11">
-        <v>1497.28</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>766.61599999999999</v>
@@ -2620,16 +2909,16 @@
         <v>4930</v>
       </c>
       <c r="B12">
-        <v>19.694654100000001</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>7779.4527702059604</v>
       </c>
       <c r="D12">
         <v>0.35220001000000001</v>
       </c>
       <c r="E12">
-        <v>1496.28</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>778.64</v>
@@ -2643,16 +2932,16 @@
         <v>5140</v>
       </c>
       <c r="B13">
-        <v>19.638625449999999</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>8282.1252143249385</v>
       </c>
       <c r="D13">
         <v>0.35220001000000001</v>
       </c>
       <c r="E13">
-        <v>1495.28</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>760.66399999999999</v>
@@ -2666,16 +2955,16 @@
         <v>5550</v>
       </c>
       <c r="B14">
-        <v>19.582596800000001</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>8780.4245597044483</v>
       </c>
       <c r="D14">
         <v>0.35220001000000001</v>
       </c>
       <c r="E14">
-        <v>1494.28</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>752.68799999999999</v>
@@ -2689,16 +2978,16 @@
         <v>5105</v>
       </c>
       <c r="B15">
-        <v>19.676423849999999</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.122170075</v>
+        <v>12000</v>
       </c>
       <c r="D15">
         <v>0.35220001000000001</v>
       </c>
       <c r="E15">
-        <v>1493.28</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>736.56200000000001</v>
@@ -2712,16 +3001,16 @@
         <v>4860</v>
       </c>
       <c r="B16">
-        <v>19.770250900000001</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>0.24434015000000001</v>
+        <v>7746.8449292489358</v>
       </c>
       <c r="D16">
         <v>0.35220001000000001</v>
       </c>
       <c r="E16">
-        <v>1377.28</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>718.53599999999994</v>
@@ -2735,16 +3024,16 @@
         <v>5355</v>
       </c>
       <c r="B17">
-        <v>19.94335435</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.5096731000000001</v>
+        <v>5950.6561231413289</v>
       </c>
       <c r="D17">
         <v>0.35220001000000001</v>
       </c>
       <c r="E17">
-        <v>1379.28</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>700.51</v>
@@ -2758,16 +3047,16 @@
         <v>5100</v>
       </c>
       <c r="B18">
-        <v>20.116457799999999</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>2.77500605</v>
+        <v>8872.9519222174349</v>
       </c>
       <c r="D18">
         <v>0.35220001000000001</v>
       </c>
       <c r="E18">
-        <v>1381.28</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>701.48400000000004</v>
@@ -2781,16 +3070,16 @@
         <v>5112.5</v>
       </c>
       <c r="B19">
-        <v>20.393423250000001</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>5.9601544999999998</v>
+        <v>6623.9822703448126</v>
       </c>
       <c r="D19">
         <v>0.35220001000000001</v>
       </c>
       <c r="E19">
-        <v>1383.28</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>698.45799999999997</v>
@@ -2804,16 +3093,16 @@
         <v>4475</v>
       </c>
       <c r="B20">
-        <v>20.6703887</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>9.1453029499999996</v>
+        <v>5413.9261322267575</v>
       </c>
       <c r="D20">
         <v>0.35220001000000001</v>
       </c>
       <c r="E20">
-        <v>1285.28</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>688.43200000000002</v>
@@ -2827,16 +3116,16 @@
         <v>4435</v>
       </c>
       <c r="B21">
-        <v>20.448782900000001</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>13.94484173</v>
+        <v>9582.6935986499248</v>
       </c>
       <c r="D21">
         <v>0.35220001000000001</v>
       </c>
       <c r="E21">
-        <v>1287.28</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>672.40599999999995</v>
@@ -2850,16 +3139,16 @@
         <v>4395</v>
       </c>
       <c r="B22">
-        <v>20.227177099999999</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>18.744380499999998</v>
+        <v>7108.0051311148318</v>
       </c>
       <c r="D22">
         <v>0.35220001000000001</v>
       </c>
       <c r="E22">
-        <v>1289.28</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>656.38</v>
@@ -2873,16 +3162,16 @@
         <v>4150</v>
       </c>
       <c r="B23">
-        <v>20.76220885</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>26.916686049999999</v>
+        <v>9600</v>
       </c>
       <c r="D23">
         <v>0.35220001000000001</v>
       </c>
       <c r="E23">
-        <v>1291.28</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>643.35400000000004</v>
@@ -2896,16 +3185,16 @@
         <v>3905</v>
       </c>
       <c r="B24">
-        <v>21.297240599999999</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>35.0889916</v>
+        <v>6927.3076874149956</v>
       </c>
       <c r="D24">
         <v>0.35220001000000001</v>
       </c>
       <c r="E24">
-        <v>1293.28</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>634.32799999999997</v>
@@ -2919,16 +3208,16 @@
         <v>4057.5</v>
       </c>
       <c r="B25">
-        <v>28.6920182</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>47.995387649999998</v>
+        <v>6427.9255025149359</v>
       </c>
       <c r="D25">
         <v>0.35220001000000001</v>
       </c>
       <c r="E25">
-        <v>1295.28</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>636.30200000000002</v>
@@ -2942,16 +3231,16 @@
         <v>4210</v>
       </c>
       <c r="B26">
-        <v>36.086795799999997</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>60.901783700000003</v>
+        <v>7374.4416187110764</v>
       </c>
       <c r="D26">
         <v>0.35220001000000001</v>
       </c>
       <c r="E26">
-        <v>1297.28</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>638.27599999999995</v>
@@ -2965,16 +3254,16 @@
         <v>4112.5</v>
       </c>
       <c r="B27">
-        <v>38.290812150000001</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>74.397214079999998</v>
+        <v>6005.8809497844359</v>
       </c>
       <c r="D27">
         <v>0.35220001000000001</v>
       </c>
       <c r="E27">
-        <v>1299.28</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>625.98</v>
@@ -2988,16 +3277,16 @@
         <v>4015</v>
       </c>
       <c r="B28">
-        <v>40.494828499999997</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>87.892644450000006</v>
+        <v>7110.850160087859</v>
       </c>
       <c r="D28">
         <v>0.35220001000000001</v>
       </c>
       <c r="E28">
-        <v>1301.28</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>607.83000000000004</v>
@@ -3011,16 +3300,16 @@
         <v>4007.5</v>
       </c>
       <c r="B29">
-        <v>42.812574699999999</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>110.5464674</v>
+        <v>7009.4854840210537</v>
       </c>
       <c r="D29">
         <v>0.35220001000000001</v>
       </c>
       <c r="E29">
-        <v>1303.28</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>609.67999999999995</v>
@@ -3034,16 +3323,16 @@
         <v>4000</v>
       </c>
       <c r="B30">
-        <v>45.130320900000001</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>133.2002904</v>
+        <v>7359.9667499220814</v>
       </c>
       <c r="D30">
         <v>0.35220001000000001</v>
       </c>
       <c r="E30">
-        <v>1305.28</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>611.53</v>
@@ -3057,16 +3346,16 @@
         <v>4310</v>
       </c>
       <c r="B31">
-        <v>43.723751</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>160.94598769999999</v>
+        <v>5672.3838779616844</v>
       </c>
       <c r="D31">
         <v>0.35220001000000001</v>
       </c>
       <c r="E31">
-        <v>1207.28</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>613.38</v>
@@ -3080,16 +3369,16 @@
         <v>4620</v>
       </c>
       <c r="B32">
-        <v>42.317181099999999</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>188.69168500000001</v>
+        <v>6923.8316122636788</v>
       </c>
       <c r="D32">
         <v>0.35220001000000001</v>
       </c>
       <c r="E32">
-        <v>1209.28</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>615.23</v>
@@ -3103,16 +3392,16 @@
         <v>4720</v>
       </c>
       <c r="B33">
-        <v>40.780658250000002</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>203.31718860000001</v>
+        <v>5222.7893400447974</v>
       </c>
       <c r="D33">
         <v>0.35220001000000001</v>
       </c>
       <c r="E33">
-        <v>1211.28</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>617.08000000000004</v>
@@ -3126,16 +3415,16 @@
         <v>4820</v>
       </c>
       <c r="B34">
-        <v>39.244135399999998</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>217.94269209999999</v>
+        <v>7996.1664892009612</v>
       </c>
       <c r="D34">
         <v>0.65550003000000001</v>
       </c>
       <c r="E34">
-        <v>1213.28</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>618.92999999999995</v>
@@ -3149,16 +3438,16 @@
         <v>4825</v>
       </c>
       <c r="B35">
-        <v>42.533602250000001</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>238.2141986</v>
+        <v>8478.6962706297873</v>
       </c>
       <c r="D35">
         <v>0.65550003000000001</v>
       </c>
       <c r="E35">
-        <v>1215.28</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>620.78</v>
@@ -3172,16 +3461,16 @@
         <v>4830</v>
       </c>
       <c r="B36">
-        <v>45.823069099999998</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>258.485705</v>
+        <v>5159.1908111842204</v>
       </c>
       <c r="D36">
         <v>0.65550003000000001</v>
       </c>
       <c r="E36">
-        <v>1319.0320000000002</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>622.63</v>
@@ -3195,16 +3484,16 @@
         <v>5100</v>
       </c>
       <c r="B37">
-        <v>44.878944599999997</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>265.54975350000001</v>
+        <v>8552.1577410807677</v>
       </c>
       <c r="D37">
         <v>0.65550003000000001</v>
       </c>
       <c r="E37">
-        <v>1380.9760000000001</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>624.48</v>
@@ -3218,16 +3507,16 @@
         <v>5150</v>
       </c>
       <c r="B38">
-        <v>43.934820100000003</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>272.6138019</v>
+        <v>7660.7359904318555</v>
       </c>
       <c r="D38">
         <v>0.65550003000000001</v>
       </c>
       <c r="E38">
-        <v>1442.92</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>626.33000000000004</v>
@@ -3241,16 +3530,16 @@
         <v>5150</v>
       </c>
       <c r="B39">
-        <v>43.0984044</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>286.39720449999999</v>
+        <v>6485.7518950988815</v>
       </c>
       <c r="D39">
         <v>0.65550003000000001</v>
       </c>
       <c r="E39">
-        <v>1408.04</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>628.17999999999995</v>
@@ -3264,16 +3553,16 @@
         <v>5250</v>
       </c>
       <c r="B40">
-        <v>42.261988700000003</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>300.1806072</v>
+        <v>7070.3465638103517</v>
       </c>
       <c r="D40">
         <v>0.65550003000000001</v>
       </c>
       <c r="E40">
-        <v>1473.44</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>634.03</v>
@@ -3287,16 +3576,16 @@
         <v>5100</v>
       </c>
       <c r="B41">
-        <v>41.597171199999998</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>310.25963860000002</v>
+        <v>7698.9834606872528</v>
       </c>
       <c r="D41">
         <v>0.65550003000000001</v>
       </c>
       <c r="E41">
-        <v>1438.944</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>638.88</v>
@@ -3310,16 +3599,16 @@
         <v>5150</v>
       </c>
       <c r="B42">
-        <v>40.9323537</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>320.33866999999998</v>
+        <v>6311.5886760692947</v>
       </c>
       <c r="D42">
         <v>0.65550003000000001</v>
       </c>
       <c r="E42">
-        <v>1604.4480000000001</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>655.73</v>
@@ -3333,16 +3622,16 @@
         <v>5300</v>
       </c>
       <c r="B43">
-        <v>40.616084549999997</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>327.3678127</v>
+        <v>5062.5736999542241</v>
       </c>
       <c r="D43">
         <v>0.65550003000000001</v>
       </c>
       <c r="E43">
-        <v>1770.048</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>666.58</v>
@@ -3356,16 +3645,16 @@
         <v>5650</v>
       </c>
       <c r="B44">
-        <v>40.2998154</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>334.39695540000002</v>
+        <v>7135.3045607734384</v>
       </c>
       <c r="D44">
         <v>0.65550003000000001</v>
       </c>
       <c r="E44">
-        <v>1935.6480000000001</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>687.43</v>
@@ -3379,16 +3668,16 @@
         <v>5375</v>
       </c>
       <c r="B45">
-        <v>39.998431449999998</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>336.11169969999997</v>
+        <v>8341.3767107285021</v>
       </c>
       <c r="D45">
         <v>0.65550003000000001</v>
       </c>
       <c r="E45">
-        <v>1958.712</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>787.61360000000002</v>
@@ -3402,16 +3691,16 @@
         <v>5300</v>
       </c>
       <c r="B46">
-        <v>39.697047499999996</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>337.82644399999998</v>
+        <v>6866.7444105548684</v>
       </c>
       <c r="D46">
         <v>0.65550003000000001</v>
       </c>
       <c r="E46">
-        <v>1981.7760000000003</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>794.53279999999995</v>
@@ -3425,16 +3714,16 @@
         <v>5625</v>
       </c>
       <c r="B47">
-        <v>39.079227199999998</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>343.89131570000001</v>
+        <v>6416.9835412400489</v>
       </c>
       <c r="D47">
         <v>0.65550003000000001</v>
       </c>
       <c r="E47">
-        <v>2009.6400000000003</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>802.89200000000005</v>
@@ -3448,16 +3737,16 @@
         <v>5550</v>
       </c>
       <c r="B48">
-        <v>38.4614069</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>349.95618739999998</v>
+        <v>6548.9249485661894</v>
       </c>
       <c r="D48">
         <v>0.65550003000000001</v>
       </c>
       <c r="E48">
-        <v>2037.5040000000001</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>811.25119999999993</v>
@@ -3471,16 +3760,16 @@
         <v>5425</v>
       </c>
       <c r="B49">
-        <v>35.265599899999998</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>354.17978160000001</v>
+        <v>5825.2009937553712</v>
       </c>
       <c r="D49">
         <v>0.65550003000000001</v>
       </c>
       <c r="E49">
-        <v>2091.288</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>827.38639999999998</v>
@@ -3494,16 +3783,16 @@
         <v>5300</v>
       </c>
       <c r="B50">
-        <v>32.069792900000003</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>358.40337570000003</v>
+        <v>8229.6630199564879</v>
       </c>
       <c r="D50">
         <v>0.65550003000000001</v>
       </c>
       <c r="E50">
-        <v>2145.0720000000001</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>843.52159999999992</v>
@@ -3517,16 +3806,16 @@
         <v>5150</v>
       </c>
       <c r="B51">
-        <v>28.124874500000001</v>
+        <v>0</v>
       </c>
       <c r="C51">
-        <v>355.48874669999998</v>
+        <v>2400</v>
       </c>
       <c r="D51">
         <v>0.65550003000000001</v>
       </c>
       <c r="E51">
-        <v>2193.1680000000001</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>857.95040000000006</v>
@@ -3540,16 +3829,16 @@
         <v>5000</v>
       </c>
       <c r="B52">
-        <v>24.179956099999998</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>352.57411769999999</v>
+        <v>4480.5972590747533</v>
       </c>
       <c r="D52">
         <v>0.65550003000000001</v>
       </c>
       <c r="E52">
-        <v>2241.2640000000001</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>832.37919999999997</v>
@@ -3563,16 +3852,16 @@
         <v>5100</v>
       </c>
       <c r="B53">
-        <v>19.223344399999998</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>347.5825974</v>
+        <v>5473.153065814854</v>
       </c>
       <c r="D53">
         <v>0.65550003000000001</v>
       </c>
       <c r="E53">
-        <v>2279.4720000000002</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>843.84159999999997</v>
@@ -3586,16 +3875,16 @@
         <v>5100</v>
       </c>
       <c r="B54">
-        <v>14.2667327</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>342.59107699999998</v>
+        <v>7816.1598755868181</v>
       </c>
       <c r="D54">
         <v>0.65550003000000001</v>
       </c>
       <c r="E54">
-        <v>2317.6800000000003</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>848.10400000000004</v>
@@ -3609,16 +3898,16 @@
         <v>5150</v>
       </c>
       <c r="B55">
-        <v>10.552451700000001</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>335.38740569999999</v>
+        <v>9388.9972123081534</v>
       </c>
       <c r="D55">
         <v>0.65550003000000001</v>
       </c>
       <c r="E55">
-        <v>2355.864</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>852.3664</v>
@@ -3632,16 +3921,16 @@
         <v>5200</v>
       </c>
       <c r="B56">
-        <v>6.8381707</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>328.18373430000003</v>
+        <v>8326.1041669765418</v>
       </c>
       <c r="D56">
         <v>0.65550003000000001</v>
       </c>
       <c r="E56">
-        <v>2394.0480000000002</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>856.62879999999996</v>
@@ -3655,16 +3944,16 @@
         <v>5200</v>
       </c>
       <c r="B57">
-        <v>8.2487545499999992</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>317.71637659999999</v>
+        <v>8670.7190084135927</v>
       </c>
       <c r="D57">
         <v>0.65550003000000001</v>
       </c>
       <c r="E57">
-        <v>2404.4160000000002</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>860.89120000000003</v>
@@ -3678,16 +3967,16 @@
         <v>5800</v>
       </c>
       <c r="B58">
-        <v>9.6593383999999993</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>307.24901890000001</v>
+        <v>7633.4896700209883</v>
       </c>
       <c r="D58">
         <v>1.04989998</v>
       </c>
       <c r="E58">
-        <v>2414.7840000000001</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>864.03520000000003</v>
@@ -3701,16 +3990,16 @@
         <v>5850</v>
       </c>
       <c r="B59">
-        <v>10.15272495</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>302.94688689999998</v>
+        <v>6606.9277312349586</v>
       </c>
       <c r="D59">
         <v>1.04989998</v>
       </c>
       <c r="E59">
-        <v>2429.904</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>888.97119999999995</v>
@@ -3724,16 +4013,16 @@
         <v>5900</v>
       </c>
       <c r="B60">
-        <v>10.6461115</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>298.64475479999999</v>
+        <v>9595.6163714435806</v>
       </c>
       <c r="D60">
         <v>1.04989998</v>
       </c>
       <c r="E60">
-        <v>2445.0239999999999</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>881.50720000000001</v>
@@ -3747,16 +4036,16 @@
         <v>6050</v>
       </c>
       <c r="B61">
-        <v>9.0965431500000005</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>275.68114350000002</v>
+        <v>7153.2120630816535</v>
       </c>
       <c r="D61">
         <v>1.04989998</v>
       </c>
       <c r="E61">
-        <v>2470.6560000000004</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>885.19679999999994</v>
@@ -3770,16 +4059,16 @@
         <v>6100</v>
       </c>
       <c r="B62">
-        <v>7.5469748000000001</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>252.7175321</v>
+        <v>6841.9550500915539</v>
       </c>
       <c r="D62">
         <v>1.04989998</v>
       </c>
       <c r="E62">
-        <v>2496.288</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>928.88639999999998</v>
@@ -3793,16 +4082,16 @@
         <v>6150</v>
       </c>
       <c r="B63">
-        <v>6.8644288500000004</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>236.1373073</v>
+        <v>8122.1610127282756</v>
       </c>
       <c r="D63">
         <v>1.04989998</v>
       </c>
       <c r="E63">
-        <v>2521.5840000000007</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>996.47519999999986</v>
@@ -3816,16 +4105,16 @@
         <v>6200</v>
       </c>
       <c r="B64">
-        <v>6.1818828999999997</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>219.55708240000001</v>
+        <v>7061.2318618425606</v>
       </c>
       <c r="D64">
         <v>1.04989998</v>
       </c>
       <c r="E64">
-        <v>2546.8800000000006</v>
+        <v>0</v>
       </c>
       <c r="F64">
         <v>1004.0639999999999</v>
@@ -3839,16 +4128,16 @@
         <v>6150</v>
       </c>
       <c r="B65">
-        <v>5.2842538499999998</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>205.67332579999999</v>
+        <v>7957.5054772481089</v>
       </c>
       <c r="D65">
         <v>1.04989998</v>
       </c>
       <c r="E65">
-        <v>2521.6320000000001</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>996.4896</v>
@@ -3862,16 +4151,16 @@
         <v>6100</v>
       </c>
       <c r="B66">
-        <v>4.3866247999999999</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>191.78956909999999</v>
+        <v>7131.9169624876122</v>
       </c>
       <c r="D66">
         <v>1.04989998</v>
       </c>
       <c r="E66">
-        <v>2496.3840000000005</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>988.91519999999991</v>
@@ -3885,16 +4174,16 @@
         <v>6050</v>
       </c>
       <c r="B67">
-        <v>3.8897259499999999</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>174.74248</v>
+        <v>5680.6908365448999</v>
       </c>
       <c r="D67">
         <v>1.04989998</v>
       </c>
       <c r="E67">
-        <v>2470.7040000000002</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>921.21119999999996</v>
@@ -3908,16 +4197,16 @@
         <v>6000</v>
       </c>
       <c r="B68">
-        <v>3.3928270999999999</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>157.695391</v>
+        <v>7650.8683452772675</v>
       </c>
       <c r="D68">
         <v>1.04989998</v>
       </c>
       <c r="E68">
-        <v>2445.0239999999999</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>913.5071999999999</v>
@@ -3931,16 +4220,16 @@
         <v>4945</v>
       </c>
       <c r="B69">
-        <v>3.7841914000000001</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>133.71078679999999</v>
+        <v>5732.3902791273977</v>
       </c>
       <c r="D69">
         <v>1.04989998</v>
       </c>
       <c r="E69">
-        <v>2374.9680000000003</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>910.49039999999991</v>
@@ -3954,16 +4243,16 @@
         <v>4590</v>
       </c>
       <c r="B70">
-        <v>4.1755557000000003</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>109.7261826</v>
+        <v>5973.3653753001608</v>
       </c>
       <c r="D70">
         <v>0.65550003000000001</v>
       </c>
       <c r="E70">
-        <v>2304.9119999999998</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>871.47359999999992</v>
@@ -3977,16 +4266,16 @@
         <v>4820</v>
       </c>
       <c r="B71">
-        <v>4.1909426500000002</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>84.681316679999995</v>
+        <v>8200.4228082294703</v>
       </c>
       <c r="D71">
         <v>0.65550003000000001</v>
       </c>
       <c r="E71">
-        <v>2234.8800000000006</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>790.46400000000006</v>
@@ -4000,16 +4289,16 @@
         <v>5050</v>
       </c>
       <c r="B72">
-        <v>4.2063296000000001</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>59.636450750000002</v>
+        <v>8153.106256030972</v>
       </c>
       <c r="D72">
         <v>0.65550003000000001</v>
       </c>
       <c r="E72">
-        <v>2164.848</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>769.45439999999996</v>
@@ -4023,16 +4312,16 @@
         <v>5150</v>
       </c>
       <c r="B73">
-        <v>4.9969188500000001</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>48.619327679999998</v>
+        <v>8247.6796325377964</v>
       </c>
       <c r="D73">
         <v>0.65550003000000001</v>
       </c>
       <c r="E73">
-        <v>2128.944</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>738.25439999999992</v>
@@ -4046,16 +4335,16 @@
         <v>5250</v>
       </c>
       <c r="B74">
-        <v>5.7875081000000002</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>37.6022046</v>
+        <v>6929.0350475494488</v>
       </c>
       <c r="D74">
         <v>0.65550003000000001</v>
       </c>
       <c r="E74">
-        <v>2093.0400000000004</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>707.05439999999999</v>
@@ -4069,16 +4358,16 @@
         <v>5250</v>
       </c>
       <c r="B75">
-        <v>6.7020293999999998</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>27.741334049999999</v>
+        <v>4960.1135962118278</v>
       </c>
       <c r="D75">
         <v>0.65550003000000001</v>
       </c>
       <c r="E75">
-        <v>2065.2720000000004</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>705.85439999999994</v>
@@ -4092,16 +4381,16 @@
         <v>5250</v>
       </c>
       <c r="B76">
-        <v>7.6165507000000003</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>17.880463500000001</v>
+        <v>4768.0468667537234</v>
       </c>
       <c r="D76">
         <v>0.65550003000000001</v>
       </c>
       <c r="E76">
-        <v>2037.5040000000001</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>704.65440000000001</v>
@@ -4115,16 +4404,16 @@
         <v>5775</v>
       </c>
       <c r="B77">
-        <v>9.2303429500000007</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>12.8889432</v>
+        <v>7762.4981118086789</v>
       </c>
       <c r="D77">
         <v>0.65550003000000001</v>
       </c>
       <c r="E77">
-        <v>1935.6239999999998</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>703.45439999999996</v>
@@ -4138,16 +4427,16 @@
         <v>5800</v>
       </c>
       <c r="B78">
-        <v>10.8441352</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>7.8974228999999996</v>
+        <v>8471.7648594565744</v>
       </c>
       <c r="D78">
         <v>1.04989998</v>
       </c>
       <c r="E78">
-        <v>1833.7439999999999</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>702.25439999999992</v>
@@ -4161,16 +4450,16 @@
         <v>5997</v>
       </c>
       <c r="B79">
-        <v>12.2970332</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>4.6250100999999999</v>
+        <v>8491.0898925207621</v>
       </c>
       <c r="D79">
         <v>1.04989998</v>
       </c>
       <c r="E79">
-        <v>1731.864</v>
+        <v>0</v>
       </c>
       <c r="F79">
         <v>696.55920000000003</v>
@@ -4184,16 +4473,16 @@
         <v>5840</v>
       </c>
       <c r="B80">
-        <v>13.749931200000001</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>1.3525973</v>
+        <v>7044.8559347529772</v>
       </c>
       <c r="D80">
         <v>1.04989998</v>
       </c>
       <c r="E80">
-        <v>1629.9840000000002</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>710.99519999999995</v>
@@ -4207,16 +4496,16 @@
         <v>5920</v>
       </c>
       <c r="B81">
-        <v>14.58450715</v>
+        <v>0</v>
       </c>
       <c r="C81">
-        <v>0.711204375</v>
+        <v>3766.0060411682666</v>
       </c>
       <c r="D81">
         <v>1.04989998</v>
       </c>
       <c r="E81">
-        <v>1540.848</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>684.25439999999992</v>
@@ -4230,16 +4519,16 @@
         <v>6000</v>
       </c>
       <c r="B82">
-        <v>15.4190831</v>
+        <v>0</v>
       </c>
       <c r="C82">
-        <v>6.9811449999999997E-2</v>
+        <v>6899.0497448179058</v>
       </c>
       <c r="D82">
         <v>1.04989998</v>
       </c>
       <c r="E82">
-        <v>1551.712</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>675.5136</v>
@@ -4253,16 +4542,16 @@
         <v>6100</v>
       </c>
       <c r="B83">
-        <v>16.5040318</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>3.4905724999999999E-2</v>
+        <v>6787.8969339191699</v>
       </c>
       <c r="D83">
         <v>1.04989998</v>
       </c>
       <c r="E83">
-        <v>1562.576</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>648.77279999999996</v>
@@ -4276,16 +4565,16 @@
         <v>6250</v>
       </c>
       <c r="B84">
-        <v>17.588980500000002</v>
+        <v>0</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>6329.91981944504</v>
       </c>
       <c r="D84">
         <v>1.04989998</v>
       </c>
       <c r="E84">
-        <v>1573.4400000000003</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>722.03200000000004</v>
@@ -4299,16 +4588,16 @@
         <v>5850</v>
       </c>
       <c r="B85">
-        <v>18.586290399999999</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>5537.7391295837724</v>
       </c>
       <c r="D85">
         <v>1.04989998</v>
       </c>
       <c r="E85">
-        <v>1585.303999999996</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>717</v>
@@ -4322,16 +4611,16 @@
         <v>5950</v>
       </c>
       <c r="B86">
-        <v>19.583600300000001</v>
+        <v>0</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>7282.1557852254082</v>
       </c>
       <c r="D86">
         <v>1.04989998</v>
       </c>
       <c r="E86">
-        <v>1580</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>711.96799999999996</v>
@@ -4345,16 +4634,16 @@
         <v>6150</v>
       </c>
       <c r="B87">
-        <v>19.48325045</v>
+        <v>0</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>6312.6019416711761</v>
       </c>
       <c r="D87">
         <v>1.04989998</v>
       </c>
       <c r="E87">
-        <v>1574.696000000004</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>706.93600000000004</v>
@@ -4368,16 +4657,16 @@
         <v>5750</v>
       </c>
       <c r="B88">
-        <v>19.382900599999999</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>7329.5759668123537</v>
       </c>
       <c r="D88">
         <v>1.04989998</v>
       </c>
       <c r="E88">
-        <v>1569.392000000008</v>
+        <v>0</v>
       </c>
       <c r="F88">
         <v>701.904</v>
@@ -4391,16 +4680,16 @@
         <v>5500</v>
       </c>
       <c r="B89">
-        <v>19.490776650000001</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>7217.9846983645393</v>
       </c>
       <c r="D89">
         <v>1.04989998</v>
       </c>
       <c r="E89">
-        <v>1564.088000000012</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>696.87200000000007</v>
@@ -4414,16 +4703,16 @@
         <v>5750</v>
       </c>
       <c r="B90">
-        <v>19.598652699999999</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="D90">
         <v>0.65550003000000001</v>
       </c>
       <c r="E90">
-        <v>1558.784000000016</v>
+        <v>0</v>
       </c>
       <c r="F90">
         <v>691.84</v>
@@ -4437,16 +4726,16 @@
         <v>6075</v>
       </c>
       <c r="B91">
-        <v>19.471877450000001</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>6708.2654529749825</v>
       </c>
       <c r="D91">
         <v>0.65550003000000001</v>
       </c>
       <c r="E91">
-        <v>1553.48000000002</v>
+        <v>0</v>
       </c>
       <c r="F91">
         <v>686.80799999999999</v>
@@ -4460,16 +4749,16 @@
         <v>6400</v>
       </c>
       <c r="B92">
-        <v>19.345102199999999</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>8422.0366511746633</v>
       </c>
       <c r="D92">
         <v>0.65550003000000001</v>
       </c>
       <c r="E92">
-        <v>1548.176000000024</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>681.77600000000007</v>
@@ -4483,16 +4772,16 @@
         <v>6025</v>
       </c>
       <c r="B93">
-        <v>19.389590649999999</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>6836.1994496930683</v>
       </c>
       <c r="D93">
         <v>0.65550003000000001</v>
       </c>
       <c r="E93">
-        <v>1542.872000000028</v>
+        <v>0</v>
       </c>
       <c r="F93">
         <v>676.74400000000003</v>
@@ -4506,16 +4795,16 @@
         <v>5650</v>
       </c>
       <c r="B94">
-        <v>19.434079100000002</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>7413.7796335684343</v>
       </c>
       <c r="D94">
         <v>0.65550003000000001</v>
       </c>
       <c r="E94">
-        <v>1537.568000000032</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>671.71199999999999</v>
@@ -4529,16 +4818,16 @@
         <v>5750</v>
       </c>
       <c r="B95">
-        <v>19.466358249999999</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>6294.5795732732549</v>
       </c>
       <c r="D95">
         <v>0.65550003000000001</v>
       </c>
       <c r="E95">
-        <v>1532.264000000036</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>666.68000000000006</v>
@@ -4552,16 +4841,16 @@
         <v>5800</v>
       </c>
       <c r="B96">
-        <v>19.4986374</v>
+        <v>0</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>8622.2288983208236</v>
       </c>
       <c r="D96">
         <v>0.65550003000000001</v>
       </c>
       <c r="E96">
-        <v>1526.9600000000401</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>661.64800000000002</v>
@@ -4575,16 +4864,16 @@
         <v>5850</v>
       </c>
       <c r="B97">
-        <v>19.4986374</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>7638.1747139158924</v>
       </c>
       <c r="D97">
         <v>0.65550003000000001</v>
       </c>
       <c r="E97">
-        <v>1521.6560000000441</v>
+        <v>0</v>
       </c>
       <c r="F97">
         <v>656.61599999999999</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Master Shi\Dropbox\WorkSpace\microgridOptimalDispatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\microgridOptimalDispatch-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>交流负荷</t>
   </si>
@@ -45,12 +45,19 @@
     <t>光伏出力</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>风电极限出力(MW)</t>
+  </si>
+  <si>
+    <t>风电实际出力（MW）（没用到）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +214,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -636,8 +651,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,1648 +714,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.1309704724409449"/>
-          <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.84425984251968522"/>
-          <c:h val="0.71445829687955664"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>input!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>input!$C$2:$C$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>7200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6513.6444947091004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8564.6300059293517</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7847.230367680063</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8482.7377263546987</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7238.0005545745043</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6805.0406557779534</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6236.5378440187706</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8418.8341926531702</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5629.2011439827329</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7779.4527702059604</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8282.1252143249385</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8780.4245597044483</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7746.8449292489358</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5950.6561231413289</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8872.9519222174349</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6623.9822703448126</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5413.9261322267575</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9582.6935986499248</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7108.0051311148318</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6927.3076874149956</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6427.9255025149359</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7374.4416187110764</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6005.8809497844359</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7110.850160087859</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7009.4854840210537</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7359.9667499220814</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5672.3838779616844</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6923.8316122636788</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5222.7893400447974</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7996.1664892009612</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8478.6962706297873</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5159.1908111842204</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8552.1577410807677</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7660.7359904318555</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6485.7518950988815</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7070.3465638103517</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7698.9834606872528</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6311.5886760692947</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5062.5736999542241</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7135.3045607734384</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8341.3767107285021</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6866.7444105548684</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6416.9835412400489</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6548.9249485661894</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5825.2009937553712</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8229.6630199564879</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4480.5972590747533</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5473.153065814854</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7816.1598755868181</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9388.9972123081534</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>8326.1041669765418</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8670.7190084135927</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7633.4896700209883</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6606.9277312349586</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9595.6163714435806</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7153.2120630816535</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6841.9550500915539</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8122.1610127282756</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7061.2318618425606</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7957.5054772481089</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7131.9169624876122</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5680.6908365448999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7650.8683452772675</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5732.3902791273977</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5973.3653753001608</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8200.4228082294703</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>8153.106256030972</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8247.6796325377964</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6929.0350475494488</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4960.1135962118278</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4768.0468667537234</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7762.4981118086789</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>8471.7648594565744</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8491.0898925207621</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7044.8559347529772</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3766.0060411682666</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6899.0497448179058</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6787.8969339191699</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6329.91981944504</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5537.7391295837724</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7282.1557852254082</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6312.6019416711761</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7329.5759668123537</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7217.9846983645393</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>9600</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6708.2654529749825</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>8422.0366511746633</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6836.1994496930683</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7413.7796335684343</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6294.5795732732549</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8622.2288983208236</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>7638.1747139158924</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B73-45FA-9ED2-56E5868A5318}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>input!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>蒸汽负荷</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>input!$G$2:$G$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>3623.4076</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3650.4076</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3677.4076</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3704.4076</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3731.4076</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3758.4076</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3785.4076</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3652.4076</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3599.4076</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3566.4076</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3493.4076</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3420.4076</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3447.4076</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3374.4076</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3501.4076</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3528.4076</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3555.4076</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3582.4076</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3589.4076</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3536.4076</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3563.4076</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3490.4076</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3517.4076</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3444.4076</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3471.4076</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3398.4076</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3325.4076</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3352.4076</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3379.4076</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3306.4076</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3333.4076</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3360.4076</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3287.4076</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3214.4076</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3141.4076</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3068.4076</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3195.4076</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3280.502</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3247.2719999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3414.0419999999995</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3580.8119999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3747.5819999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3718.6343999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3877.0659000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4035.4973999999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4193.928899999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4352.3603999999996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4510.7918999999993</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5196.4369199999983</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5312.9494800000002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5429.4620400000003</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5545.9746000000005</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5662.4871600000006</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5778.9997199999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5895.5122799999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6012.0248399999991</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6128.5374000000002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6245.0499600000003</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6238.4219999999978</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6231.7940399999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6225.1660799999991</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6218.5381200000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6211.9101600000004</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6205.2821999999996</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6198.6542400000008</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6192.0262799999991</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6185.3983199999993</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6178.7703599999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6172.1423999999997</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5898.4967999999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5624.8512000000001</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5351.2055999999993</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4585.8893999999991</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>4361.6143500000007</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>4137.3392999999996</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3913.0642499999994</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3688.7891999999997</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3464.5141500000004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3240.2390999999998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3015.9640499999996</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3138.62</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3243.0491999999995</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2959.7543999999998</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2976.4596000000001</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3053.1648</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3169.87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3102.5752000000102</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3135.2804000000101</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3167.98560000002</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3200.6908000000299</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3353.3960000000402</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3386.1012000000401</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3318.80640000005</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3451.5116000000598</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3584.2168000000702</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>3616.9220000000801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B73-45FA-9ED2-56E5868A5318}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>input!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>热水负荷</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>input!$F$2:$F$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>808.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>810.42399999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>812.44799999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>814.47199999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>796.49599999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>788.52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>780.54399999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>782.56799999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>774.59199999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>766.61599999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>778.64</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>760.66399999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>752.68799999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>736.56200000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>718.53599999999994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>700.51</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>701.48400000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>698.45799999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>688.43200000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>672.40599999999995</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>656.38</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>643.35400000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>634.32799999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>636.30200000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>638.27599999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>625.98</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>607.83000000000004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>609.67999999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>611.53</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>613.38</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>615.23</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>617.08000000000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>618.92999999999995</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>620.78</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>622.63</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>624.48</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>626.33000000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>628.17999999999995</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>634.03</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>638.88</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>655.73</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>666.58</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>687.43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>787.61360000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>794.53279999999995</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>802.89200000000005</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>811.25119999999993</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>827.38639999999998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>843.52159999999992</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>857.95040000000006</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>832.37919999999997</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>843.84159999999997</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>848.10400000000004</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>852.3664</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>856.62879999999996</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>860.89120000000003</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>864.03520000000003</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>888.97119999999995</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>881.50720000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>885.19679999999994</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>928.88639999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>996.47519999999986</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1004.0639999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>996.4896</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>988.91519999999991</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>921.21119999999996</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>913.5071999999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>910.49039999999991</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>871.47359999999992</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>790.46400000000006</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>769.45439999999996</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>738.25439999999992</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>707.05439999999999</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>705.85439999999994</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>704.65440000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>703.45439999999996</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>702.25439999999992</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>696.55920000000003</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>710.99519999999995</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>684.25439999999992</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>675.5136</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>648.77279999999996</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>722.03200000000004</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>717</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>711.96799999999996</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>706.93600000000004</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>701.904</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>696.87200000000007</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>691.84</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>686.80799999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>681.77600000000007</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>676.74400000000003</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>671.71199999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>666.68000000000006</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>661.64800000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>656.61599999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7B73-45FA-9ED2-56E5868A5318}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>input!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>冷负荷</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>input!$E$2:$E$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7B73-45FA-9ED2-56E5868A5318}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="51493504"/>
-        <c:axId val="105112320"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="51493504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN"/>
-                  <a:t>时刻</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="105112320"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="8"/>
-        <c:tickMarkSkip val="8"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="105112320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN"/>
-                  <a:t>功率</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>/kW</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="51493504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr baseline="0">
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-          <a:ea typeface="宋体" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2637,21 +1013,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C2" sqref="C2:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2673,16 +1050,23 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7200</v>
+        <f>I2*1.3</f>
+        <v>546.01193816</v>
       </c>
       <c r="D2">
         <v>0.35220001000000001</v>
@@ -2691,21 +1075,28 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>808.4</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>3623.4076</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="H2" s="1">
+        <v>121.01</v>
+      </c>
+      <c r="I2">
+        <v>420.0091832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4525</v>
+        <v>362</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6513.6444947091004</v>
+        <f t="shared" ref="C3:C66" si="0">I3*1.3</f>
+        <v>533.37427026</v>
       </c>
       <c r="D3">
         <v>0.35220001000000001</v>
@@ -2714,21 +1105,28 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>810.42399999999998</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3650.4076</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>497</v>
+      </c>
+      <c r="H3" s="1">
+        <v>120.58</v>
+      </c>
+      <c r="I3">
+        <v>410.28790020000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4050</v>
+        <v>324</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8564.6300059293517</v>
+        <f t="shared" si="0"/>
+        <v>505.25175922000005</v>
       </c>
       <c r="D4">
         <v>0.35220001000000001</v>
@@ -2737,21 +1135,28 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>812.44799999999998</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3677.4076</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+      <c r="H4" s="1">
+        <v>122.09</v>
+      </c>
+      <c r="I4">
+        <v>388.65519940000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4775</v>
+        <v>382</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7847.230367680063</v>
+        <f t="shared" si="0"/>
+        <v>489.90920913999997</v>
       </c>
       <c r="D5">
         <v>0.35220001000000001</v>
@@ -2760,21 +1165,28 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>814.47199999999998</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3704.4076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+      <c r="H5" s="1">
+        <v>123.53</v>
+      </c>
+      <c r="I5">
+        <v>376.85323779999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5500</v>
+        <v>440</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8482.7377263546987</v>
+        <f t="shared" si="0"/>
+        <v>484.44455254000002</v>
       </c>
       <c r="D6">
         <v>0.35220001000000001</v>
@@ -2783,21 +1195,28 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>796.49599999999998</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3731.4076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+      <c r="H6" s="1">
+        <v>125.31</v>
+      </c>
+      <c r="I6">
+        <v>372.64965580000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5275</v>
+        <v>422</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7238.0005545745043</v>
+        <f t="shared" si="0"/>
+        <v>480.70139103999998</v>
       </c>
       <c r="D7">
         <v>0.35220001000000001</v>
@@ -2806,21 +1225,28 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>788.52</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>3758.4076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+      <c r="H7" s="1">
+        <v>125.88</v>
+      </c>
+      <c r="I7">
+        <v>369.77030079999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5050</v>
+        <v>404</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6805.0406557779534</v>
+        <f t="shared" si="0"/>
+        <v>498.85385394000002</v>
       </c>
       <c r="D8">
         <v>0.35220001000000001</v>
@@ -2829,21 +1255,28 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>780.54399999999998</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>3785.4076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+      <c r="H8" s="1">
+        <v>124.58</v>
+      </c>
+      <c r="I8">
+        <v>383.73373379999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5017.5</v>
+        <v>401.39999999999992</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6236.5378440187706</v>
+        <f t="shared" si="0"/>
+        <v>473.63126590000002</v>
       </c>
       <c r="D9">
         <v>0.35220001000000001</v>
@@ -2852,21 +1285,28 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>782.56799999999998</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>3652.4076</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>479</v>
+      </c>
+      <c r="H9" s="1">
+        <v>122.38</v>
+      </c>
+      <c r="I9">
+        <v>364.33174300000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4985</v>
+        <v>398.8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8418.8341926531702</v>
+        <f t="shared" si="0"/>
+        <v>494.28465944000004</v>
       </c>
       <c r="D10">
         <v>0.35220001000000001</v>
@@ -2875,21 +1315,28 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>774.59199999999998</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3599.4076</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+      <c r="H10" s="1">
+        <v>121.23</v>
+      </c>
+      <c r="I10">
+        <v>380.21896880000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4957.5</v>
+        <v>396.60000000000008</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5629.2011439827329</v>
+        <f t="shared" si="0"/>
+        <v>494.09997260000006</v>
       </c>
       <c r="D11">
         <v>0.35220001000000001</v>
@@ -2898,21 +1345,28 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>766.61599999999999</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>3566.4076</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>473</v>
+      </c>
+      <c r="H11" s="1">
+        <v>117.96</v>
+      </c>
+      <c r="I11">
+        <v>380.07690200000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4930</v>
+        <v>394.39999999999992</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7779.4527702059604</v>
+        <f t="shared" si="0"/>
+        <v>547.10627374000001</v>
       </c>
       <c r="D12">
         <v>0.35220001000000001</v>
@@ -2921,21 +1375,28 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>778.64</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>3493.4076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>470</v>
+      </c>
+      <c r="H12" s="1">
+        <v>140.99</v>
+      </c>
+      <c r="I12">
+        <v>420.8509798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>5140</v>
+        <v>411.2</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8282.1252143249385</v>
+        <f t="shared" si="0"/>
+        <v>569.70695262000004</v>
       </c>
       <c r="D13">
         <v>0.35220001000000001</v>
@@ -2944,21 +1405,28 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>760.66399999999999</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>3420.4076</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>467</v>
+      </c>
+      <c r="H13" s="1">
+        <v>142.27000000000001</v>
+      </c>
+      <c r="I13">
+        <v>438.23611740000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>5550</v>
+        <v>444</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8780.4245597044483</v>
+        <f t="shared" si="0"/>
+        <v>556.90165518000003</v>
       </c>
       <c r="D14">
         <v>0.35220001000000001</v>
@@ -2967,21 +1435,28 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>752.68799999999999</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>3447.4076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>464</v>
+      </c>
+      <c r="H14" s="1">
+        <v>141.72999999999999</v>
+      </c>
+      <c r="I14">
+        <v>428.38588859999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>5105</v>
+        <v>408.39999999999992</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12000</v>
+        <f t="shared" si="0"/>
+        <v>509.11983043999999</v>
       </c>
       <c r="D15">
         <v>0.35220001000000001</v>
@@ -2990,21 +1465,28 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>736.56200000000001</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>3374.4076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>461</v>
+      </c>
+      <c r="H15" s="1">
+        <v>165.08</v>
+      </c>
+      <c r="I15">
+        <v>391.63063879999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4860</v>
+        <v>388.8</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7746.8449292489358</v>
+        <f t="shared" si="0"/>
+        <v>535.69183043999999</v>
       </c>
       <c r="D16">
         <v>0.35220001000000001</v>
@@ -3013,21 +1495,28 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>718.53599999999994</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>3501.4076</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>458</v>
+      </c>
+      <c r="H16" s="1">
+        <v>160.63999999999999</v>
+      </c>
+      <c r="I16">
+        <v>412.07063879999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>5355</v>
+        <v>428.39999999999992</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5950.6561231413289</v>
+        <f t="shared" si="0"/>
+        <v>504.74986900000005</v>
       </c>
       <c r="D17">
         <v>0.35220001000000001</v>
@@ -3036,21 +1525,28 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>700.51</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>3528.4076</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>455</v>
+      </c>
+      <c r="H17" s="1">
+        <v>153.41</v>
+      </c>
+      <c r="I17">
+        <v>388.26913000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>5100</v>
+        <v>408</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8872.9519222174349</v>
+        <f t="shared" si="0"/>
+        <v>422.33951292</v>
       </c>
       <c r="D18">
         <v>0.35220001000000001</v>
@@ -3059,21 +1555,28 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>701.48400000000004</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>3555.4076</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+      <c r="H18" s="1">
+        <v>76.33</v>
+      </c>
+      <c r="I18">
+        <v>324.87654839999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>5112.5</v>
+        <v>409</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6623.9822703448126</v>
+        <f t="shared" si="0"/>
+        <v>432.96537128</v>
       </c>
       <c r="D19">
         <v>0.35220001000000001</v>
@@ -3082,21 +1585,28 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>698.45799999999997</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>3582.4076</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+      <c r="H19" s="1">
+        <v>88.69</v>
+      </c>
+      <c r="I19">
+        <v>333.0502856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>4475</v>
+        <v>358</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5413.9261322267575</v>
+        <f t="shared" si="0"/>
+        <v>402.89153918</v>
       </c>
       <c r="D20">
         <v>0.35220001000000001</v>
@@ -3105,21 +1615,28 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>688.43200000000002</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>3589.4076</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>446</v>
+      </c>
+      <c r="H20" s="1">
+        <v>95.98</v>
+      </c>
+      <c r="I20">
+        <v>309.91656860000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>4435</v>
+        <v>354.8</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9582.6935986499248</v>
+        <f t="shared" si="0"/>
+        <v>409.95022483999998</v>
       </c>
       <c r="D21">
         <v>0.35220001000000001</v>
@@ -3128,21 +1645,28 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>672.40599999999995</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>3536.4076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>443</v>
+      </c>
+      <c r="H21" s="1">
+        <v>82.66</v>
+      </c>
+      <c r="I21">
+        <v>315.34632679999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4395</v>
+        <v>351.60000000000008</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7108.0051311148318</v>
+        <f t="shared" si="0"/>
+        <v>389.49116700000002</v>
       </c>
       <c r="D22">
         <v>0.35220001000000001</v>
@@ -3151,21 +1675,28 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>656.38</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>3563.4076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="H22" s="1">
+        <v>71.44</v>
+      </c>
+      <c r="I22">
+        <v>299.60858999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>4150</v>
+        <v>332</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9600</v>
+        <f t="shared" si="0"/>
+        <v>368.80984971999999</v>
       </c>
       <c r="D23">
         <v>0.35220001000000001</v>
@@ -3174,21 +1705,28 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>643.35400000000004</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>3490.4076</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>441</v>
+      </c>
+      <c r="H23" s="1">
+        <v>57.66</v>
+      </c>
+      <c r="I23">
+        <v>283.69988439999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>3905</v>
+        <v>312.39999999999998</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6927.3076874149956</v>
+        <f t="shared" si="0"/>
+        <v>334.56923681999996</v>
       </c>
       <c r="D24">
         <v>0.35220001000000001</v>
@@ -3197,21 +1735,28 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>634.32799999999997</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>3517.4076</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>440</v>
+      </c>
+      <c r="H24" s="1">
+        <v>50.33</v>
+      </c>
+      <c r="I24">
+        <v>257.36095139999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>4057.5</v>
+        <v>324.60000000000002</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6427.9255025149359</v>
+        <f t="shared" si="0"/>
+        <v>334.53000308000003</v>
       </c>
       <c r="D25">
         <v>0.35220001000000001</v>
@@ -3220,21 +1765,28 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>636.30200000000002</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>3444.4076</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+      <c r="H25" s="1">
+        <v>43.98</v>
+      </c>
+      <c r="I25">
+        <v>257.33077159999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>4210</v>
+        <v>336.8</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>7374.4416187110764</v>
+        <f t="shared" si="0"/>
+        <v>291.53642336000001</v>
       </c>
       <c r="D26">
         <v>0.35220001000000001</v>
@@ -3243,21 +1795,28 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>638.27599999999995</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>3471.4076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>438</v>
+      </c>
+      <c r="H26" s="1">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="I26">
+        <v>224.2587872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>4112.5</v>
+        <v>329</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>6005.8809497844359</v>
+        <f t="shared" si="0"/>
+        <v>264.65866154000003</v>
       </c>
       <c r="D27">
         <v>0.35220001000000001</v>
@@ -3266,21 +1825,28 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>625.98</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>3398.4076</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+      <c r="H27" s="1">
+        <v>43.18</v>
+      </c>
+      <c r="I27">
+        <v>203.58358580000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4015</v>
+        <v>321.2</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>7110.850160087859</v>
+        <f t="shared" si="0"/>
+        <v>232.41661508000001</v>
       </c>
       <c r="D28">
         <v>0.35220001000000001</v>
@@ -3289,21 +1855,28 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>607.83000000000004</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>3325.4076</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="H28" s="1">
+        <v>41.95</v>
+      </c>
+      <c r="I28">
+        <v>178.7820116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4007.5</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>7009.4854840210537</v>
+        <f t="shared" si="0"/>
+        <v>233.46225708</v>
       </c>
       <c r="D29">
         <v>0.35220001000000001</v>
@@ -3312,21 +1885,28 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>609.67999999999995</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>3352.4076</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>435</v>
+      </c>
+      <c r="H29" s="1">
+        <v>45.43</v>
+      </c>
+      <c r="I29">
+        <v>179.5863516</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4000</v>
+        <v>320</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>7359.9667499220814</v>
+        <f t="shared" si="0"/>
+        <v>245.03381240000002</v>
       </c>
       <c r="D30">
         <v>0.35220001000000001</v>
@@ -3335,21 +1915,28 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>611.53</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>3379.4076</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+      <c r="H30" s="1">
+        <v>45.25</v>
+      </c>
+      <c r="I30">
+        <v>188.487548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4310</v>
+        <v>344.8</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>5672.3838779616844</v>
+        <f t="shared" si="0"/>
+        <v>237.07030879999999</v>
       </c>
       <c r="D31">
         <v>0.35220001000000001</v>
@@ -3358,21 +1945,28 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>613.38</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>3306.4076</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="H31" s="1">
+        <v>46.95</v>
+      </c>
+      <c r="I31">
+        <v>182.36177599999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>4620</v>
+        <v>369.60000000000008</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
       <c r="C32">
-        <v>6923.8316122636788</v>
+        <f t="shared" si="0"/>
+        <v>233.72149528</v>
       </c>
       <c r="D32">
         <v>0.35220001000000001</v>
@@ -3381,21 +1975,28 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>615.23</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>3333.4076</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+      <c r="H32" s="1">
+        <v>47.49</v>
+      </c>
+      <c r="I32">
+        <v>179.78576559999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>4720</v>
+        <v>377.60000000000008</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>5222.7893400447974</v>
+        <f t="shared" si="0"/>
+        <v>221.38951848000002</v>
       </c>
       <c r="D33">
         <v>0.35220001000000001</v>
@@ -3404,21 +2005,28 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>617.08000000000004</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>3360.4076</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+      <c r="H33" s="1">
+        <v>47.56</v>
+      </c>
+      <c r="I33">
+        <v>170.2996296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>4820</v>
+        <v>385.60000000000008</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>7996.1664892009612</v>
+        <f t="shared" si="0"/>
+        <v>222.58887456000002</v>
       </c>
       <c r="D34">
         <v>0.65550003000000001</v>
@@ -3427,21 +2035,28 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>618.92999999999995</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>3287.4076</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+      <c r="H34" s="1">
+        <v>49.68</v>
+      </c>
+      <c r="I34">
+        <v>171.2222112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4825</v>
+        <v>386</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>8478.6962706297873</v>
+        <f t="shared" si="0"/>
+        <v>241.06316624000002</v>
       </c>
       <c r="D35">
         <v>0.65550003000000001</v>
@@ -3450,21 +2065,28 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>620.78</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>3214.4076</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="H35" s="1">
+        <v>52.73</v>
+      </c>
+      <c r="I35">
+        <v>185.4332048</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4830</v>
+        <v>386.39999999999992</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>5159.1908111842204</v>
+        <f t="shared" si="0"/>
+        <v>242.12023498000002</v>
       </c>
       <c r="D36">
         <v>0.65550003000000001</v>
@@ -3473,21 +2095,28 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>622.63</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>3141.4076</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+      <c r="H36" s="1">
+        <v>55.07</v>
+      </c>
+      <c r="I36">
+        <v>186.24633460000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>5100</v>
+        <v>408</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>8552.1577410807677</v>
+        <f t="shared" si="0"/>
+        <v>216.70545181999998</v>
       </c>
       <c r="D37">
         <v>0.65550003000000001</v>
@@ -3496,21 +2125,28 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>624.48</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>3068.4076</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="H37" s="1">
+        <v>50.95</v>
+      </c>
+      <c r="I37">
+        <v>166.69650139999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>7660.7359904318555</v>
+        <f t="shared" si="0"/>
+        <v>228.07971237999999</v>
       </c>
       <c r="D38">
         <v>0.65550003000000001</v>
@@ -3519,21 +2155,28 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>626.33000000000004</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>3195.4076</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+      <c r="H38" s="1">
+        <v>49.45</v>
+      </c>
+      <c r="I38">
+        <v>175.44593259999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
-        <v>6485.7518950988815</v>
+        <f t="shared" si="0"/>
+        <v>230.27959162000002</v>
       </c>
       <c r="D39">
         <v>0.65550003000000001</v>
@@ -3542,21 +2185,28 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>628.17999999999995</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>3280.502</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="H39" s="1">
+        <v>52.56</v>
+      </c>
+      <c r="I39">
+        <v>177.13814740000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>5250</v>
+        <v>420</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
       <c r="C40">
-        <v>7070.3465638103517</v>
+        <f t="shared" si="0"/>
+        <v>247.99259810000004</v>
       </c>
       <c r="D40">
         <v>0.65550003000000001</v>
@@ -3565,21 +2215,28 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>634.03</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>3247.2719999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="H40" s="1">
+        <v>51.22</v>
+      </c>
+      <c r="I40">
+        <v>190.76353700000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>5100</v>
+        <v>408</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>7698.9834606872528</v>
+        <f t="shared" si="0"/>
+        <v>222.38138130000002</v>
       </c>
       <c r="D41">
         <v>0.65550003000000001</v>
@@ -3588,21 +2245,28 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>638.88</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>3414.0419999999995</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="H41" s="1">
+        <v>45.87</v>
+      </c>
+      <c r="I41">
+        <v>171.062601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>6311.5886760692947</v>
+        <f t="shared" si="0"/>
+        <v>217.26840278000003</v>
       </c>
       <c r="D42">
         <v>0.65550003000000001</v>
@@ -3611,21 +2275,28 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>655.73</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>3580.8119999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="H42" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="I42">
+        <v>167.12954060000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>5300</v>
+        <v>424</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>5062.5736999542241</v>
+        <f t="shared" si="0"/>
+        <v>209.303095326</v>
       </c>
       <c r="D43">
         <v>0.65550003000000001</v>
@@ -3634,21 +2305,28 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>666.58</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>3747.5819999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="H43" s="1">
+        <v>35.130000000000003</v>
+      </c>
+      <c r="I43">
+        <v>161.00238102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>5650</v>
+        <v>452</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>7135.3045607734384</v>
+        <f t="shared" si="0"/>
+        <v>211.92532397400001</v>
       </c>
       <c r="D44">
         <v>0.65550003000000001</v>
@@ -3657,21 +2335,28 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>687.43</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>3718.6343999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H44" s="1">
+        <v>31.05</v>
+      </c>
+      <c r="I44">
+        <v>163.01947998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>5375</v>
+        <v>430</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>8341.3767107285021</v>
+        <f t="shared" si="0"/>
+        <v>195.58945575000001</v>
       </c>
       <c r="D45">
         <v>0.65550003000000001</v>
@@ -3680,21 +2365,28 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>787.61360000000002</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>3877.0659000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H45" s="1">
+        <v>29.7</v>
+      </c>
+      <c r="I45">
+        <v>150.4534275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>5300</v>
+        <v>424</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>6866.7444105548684</v>
+        <f t="shared" si="0"/>
+        <v>208.49828232999999</v>
       </c>
       <c r="D46">
         <v>0.65550003000000001</v>
@@ -3703,21 +2395,28 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>794.53279999999995</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>4035.4973999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H46" s="1">
+        <v>27.47</v>
+      </c>
+      <c r="I46">
+        <v>160.3832941</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>5625</v>
+        <v>450</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>6416.9835412400489</v>
+        <f t="shared" si="0"/>
+        <v>200.698786262</v>
       </c>
       <c r="D47">
         <v>0.65550003000000001</v>
@@ -3726,21 +2425,28 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>802.89200000000005</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>4193.928899999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H47" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="I47">
+        <v>154.38368173999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>5550</v>
+        <v>444</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>6548.9249485661894</v>
+        <f t="shared" si="0"/>
+        <v>170.81802675600002</v>
       </c>
       <c r="D48">
         <v>0.65550003000000001</v>
@@ -3749,21 +2455,28 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>811.25119999999993</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>4352.3603999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H48" s="1">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="I48">
+        <v>131.39848212000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>5425</v>
+        <v>434</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
       <c r="C49">
-        <v>5825.2009937553712</v>
+        <f t="shared" si="0"/>
+        <v>202.71122396200002</v>
       </c>
       <c r="D49">
         <v>0.65550003000000001</v>
@@ -3772,21 +2485,28 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>827.38639999999998</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>4510.7918999999993</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H49" s="1">
+        <v>16.13</v>
+      </c>
+      <c r="I49">
+        <v>155.93171074</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>5300</v>
+        <v>424</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>8229.6630199564879</v>
+        <f t="shared" si="0"/>
+        <v>178.96871522400002</v>
       </c>
       <c r="D50">
         <v>0.65550003000000001</v>
@@ -3795,21 +2515,28 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>843.52159999999992</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>5196.4369199999983</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H50" s="1">
+        <v>14.34</v>
+      </c>
+      <c r="I50">
+        <v>137.66824248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>2400</v>
+        <f t="shared" si="0"/>
+        <v>178.70070054200002</v>
       </c>
       <c r="D51">
         <v>0.65550003000000001</v>
@@ -3818,21 +2545,28 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>857.95040000000006</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>5312.9494800000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H51" s="1">
+        <v>14</v>
+      </c>
+      <c r="I51">
+        <v>137.46207734000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>5000</v>
+        <v>400</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>4480.5972590747533</v>
+        <f t="shared" si="0"/>
+        <v>191.81820052200001</v>
       </c>
       <c r="D52">
         <v>0.65550003000000001</v>
@@ -3841,21 +2575,28 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>832.37919999999997</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>5429.4620400000003</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H52" s="1">
+        <v>13.29</v>
+      </c>
+      <c r="I52">
+        <v>147.55246194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>5100</v>
+        <v>408</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>5473.153065814854</v>
+        <f t="shared" si="0"/>
+        <v>196.51356605399999</v>
       </c>
       <c r="D53">
         <v>0.65550003000000001</v>
@@ -3864,21 +2605,28 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>843.84159999999997</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>5545.9746000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H53" s="1">
+        <v>14.76</v>
+      </c>
+      <c r="I53">
+        <v>151.16428157999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>5100</v>
+        <v>408</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>7816.1598755868181</v>
+        <f t="shared" si="0"/>
+        <v>199.09622647199998</v>
       </c>
       <c r="D54">
         <v>0.65550003000000001</v>
@@ -3887,21 +2635,28 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>848.10400000000004</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>5662.4871600000006</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H54" s="1">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="I54">
+        <v>153.15094343999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>9388.9972123081534</v>
+        <f t="shared" si="0"/>
+        <v>183.76925767200001</v>
       </c>
       <c r="D55">
         <v>0.65550003000000001</v>
@@ -3910,21 +2665,28 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>852.3664</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>5778.9997199999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H55" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="I55">
+        <v>141.36096744</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>5200</v>
+        <v>416</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>8326.1041669765418</v>
+        <f t="shared" si="0"/>
+        <v>202.447493092</v>
       </c>
       <c r="D56">
         <v>0.65550003000000001</v>
@@ -3933,21 +2695,28 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>856.62879999999996</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>5895.5122799999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H56" s="1">
+        <v>26.14</v>
+      </c>
+      <c r="I56">
+        <v>155.72884084</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>5200</v>
+        <v>416</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>8670.7190084135927</v>
+        <f t="shared" si="0"/>
+        <v>193.182339896</v>
       </c>
       <c r="D57">
         <v>0.65550003000000001</v>
@@ -3956,21 +2725,28 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>860.89120000000003</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>6012.0248399999991</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H57" s="1">
+        <v>29.03</v>
+      </c>
+      <c r="I57">
+        <v>148.60179991999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>5800</v>
+        <v>464</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>7633.4896700209883</v>
+        <f t="shared" si="0"/>
+        <v>197.86511648800001</v>
       </c>
       <c r="D58">
         <v>1.04989998</v>
@@ -3979,21 +2755,28 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>864.03520000000003</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>6128.5374000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H58" s="1">
+        <v>30.87</v>
+      </c>
+      <c r="I58">
+        <v>152.20393576000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>5850</v>
+        <v>468</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>6606.9277312349586</v>
+        <f t="shared" si="0"/>
+        <v>199.341737634</v>
       </c>
       <c r="D59">
         <v>1.04989998</v>
@@ -4002,21 +2785,28 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>888.97119999999995</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>6245.0499600000003</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H59" s="1">
+        <v>30.74</v>
+      </c>
+      <c r="I59">
+        <v>153.33979818</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>5900</v>
+        <v>472</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>9595.6163714435806</v>
+        <f t="shared" si="0"/>
+        <v>177.21279056</v>
       </c>
       <c r="D60">
         <v>1.04989998</v>
@@ -4025,21 +2815,28 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>881.50720000000001</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>6238.4219999999978</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H60" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="I60">
+        <v>136.31753119999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>6050</v>
+        <v>484</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>7153.2120630816535</v>
+        <f t="shared" si="0"/>
+        <v>227.20326252000001</v>
       </c>
       <c r="D61">
         <v>1.04989998</v>
@@ -4048,21 +2845,28 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>885.19679999999994</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>6231.7940399999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H61" s="1">
+        <v>42.68</v>
+      </c>
+      <c r="I61">
+        <v>174.7717404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>6100</v>
+        <v>488</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>6841.9550500915539</v>
+        <f t="shared" si="0"/>
+        <v>225.12453964000002</v>
       </c>
       <c r="D62">
         <v>1.04989998</v>
@@ -4071,21 +2875,28 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>928.88639999999998</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>6225.1660799999991</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H62" s="1">
+        <v>48.95</v>
+      </c>
+      <c r="I62">
+        <v>173.1727228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>6150</v>
+        <v>492</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>8122.1610127282756</v>
+        <f t="shared" si="0"/>
+        <v>250.67161053999999</v>
       </c>
       <c r="D63">
         <v>1.04989998</v>
@@ -4094,21 +2905,28 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>996.47519999999986</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>6218.5381200000002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H63" s="1">
+        <v>58.2</v>
+      </c>
+      <c r="I63">
+        <v>192.82431579999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>6200</v>
+        <v>496</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>7061.2318618425606</v>
+        <f t="shared" si="0"/>
+        <v>263.32540546000001</v>
       </c>
       <c r="D64">
         <v>1.04989998</v>
@@ -4117,21 +2935,28 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1004.0639999999999</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>6211.9101600000004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H64" s="1">
+        <v>66.39</v>
+      </c>
+      <c r="I64">
+        <v>202.5580042</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>6150</v>
+        <v>492</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>7957.5054772481089</v>
+        <f t="shared" si="0"/>
+        <v>258.07064503999999</v>
       </c>
       <c r="D65">
         <v>1.04989998</v>
@@ -4140,21 +2965,28 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>996.4896</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>6205.2821999999996</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H65" s="1">
+        <v>72.19</v>
+      </c>
+      <c r="I65">
+        <v>198.51588079999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>6100</v>
+        <v>488</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>7131.9169624876122</v>
+        <f t="shared" si="0"/>
+        <v>256.91915444</v>
       </c>
       <c r="D66">
         <v>1.04989998</v>
@@ -4163,21 +2995,28 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>988.91519999999991</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>6198.6542400000008</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H66" s="1">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="I66">
+        <v>197.63011879999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>6050</v>
+        <v>484</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>5680.6908365448999</v>
+        <f t="shared" ref="C67:C97" si="1">I67*1.3</f>
+        <v>297.91939580000002</v>
       </c>
       <c r="D67">
         <v>1.04989998</v>
@@ -4186,21 +3025,28 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>921.21119999999996</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>6192.0262799999991</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H67" s="1">
+        <v>83.03</v>
+      </c>
+      <c r="I67">
+        <v>229.16876600000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>6000</v>
+        <v>480</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>7650.8683452772675</v>
+        <f t="shared" si="1"/>
+        <v>298.63183479999998</v>
       </c>
       <c r="D68">
         <v>1.04989998</v>
@@ -4209,21 +3055,28 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>913.5071999999999</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>6185.3983199999993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+      <c r="H68" s="1">
+        <v>92.33</v>
+      </c>
+      <c r="I68">
+        <v>229.71679599999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>4945</v>
+        <v>395.60000000000008</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>5732.3902791273977</v>
+        <f t="shared" si="1"/>
+        <v>314.09830218000002</v>
       </c>
       <c r="D69">
         <v>1.04989998</v>
@@ -4232,21 +3085,28 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>910.49039999999991</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>6178.7703599999995</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="H69" s="1">
+        <v>99.07</v>
+      </c>
+      <c r="I69">
+        <v>241.6140786</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>4590</v>
+        <v>367.2</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>5973.3653753001608</v>
+        <f t="shared" si="1"/>
+        <v>301.20159758</v>
       </c>
       <c r="D70">
         <v>0.65550003000000001</v>
@@ -4255,21 +3115,28 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>871.47359999999992</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>6172.1423999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="H70" s="1">
+        <v>104.79</v>
+      </c>
+      <c r="I70">
+        <v>231.69353659999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>4820</v>
+        <v>385.60000000000008</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>8200.4228082294703</v>
+        <f t="shared" si="1"/>
+        <v>334.46661846000001</v>
       </c>
       <c r="D71">
         <v>0.65550003000000001</v>
@@ -4278,21 +3145,28 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>790.46400000000006</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>5898.4967999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="H71" s="1">
+        <v>108.58</v>
+      </c>
+      <c r="I71">
+        <v>257.28201419999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>5050</v>
+        <v>404</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>8153.106256030972</v>
+        <f t="shared" si="1"/>
+        <v>371.53226993999999</v>
       </c>
       <c r="D72">
         <v>0.65550003000000001</v>
@@ -4301,21 +3175,28 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>769.45439999999996</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>5624.8512000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>412</v>
+      </c>
+      <c r="H72" s="1">
+        <v>112.07</v>
+      </c>
+      <c r="I72">
+        <v>285.79405379999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>5150</v>
+        <v>412</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
       <c r="C73">
-        <v>8247.6796325377964</v>
+        <f t="shared" si="1"/>
+        <v>377.85715682</v>
       </c>
       <c r="D73">
         <v>0.65550003000000001</v>
@@ -4324,21 +3205,28 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>738.25439999999992</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>5351.2055999999993</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="H73" s="1">
+        <v>115.03</v>
+      </c>
+      <c r="I73">
+        <v>290.65935139999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>5250</v>
+        <v>420</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>6929.0350475494488</v>
+        <f t="shared" si="1"/>
+        <v>481.90689715999997</v>
       </c>
       <c r="D74">
         <v>0.65550003000000001</v>
@@ -4347,21 +3235,28 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>707.05439999999999</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>4585.8893999999991</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+      <c r="H74" s="1">
+        <v>179.67</v>
+      </c>
+      <c r="I74">
+        <v>370.69761319999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>5250</v>
+        <v>420</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
       <c r="C75">
-        <v>4960.1135962118278</v>
+        <f t="shared" si="1"/>
+        <v>483.11705832000001</v>
       </c>
       <c r="D75">
         <v>0.65550003000000001</v>
@@ -4370,21 +3265,28 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>705.85439999999994</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>4361.6143500000007</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="H75" s="1">
+        <v>193.75</v>
+      </c>
+      <c r="I75">
+        <v>371.62850639999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>5250</v>
+        <v>420</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>4768.0468667537234</v>
+        <f t="shared" si="1"/>
+        <v>503.64144844000003</v>
       </c>
       <c r="D76">
         <v>0.65550003000000001</v>
@@ -4393,21 +3295,28 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>704.65440000000001</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>4137.3392999999996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>424</v>
+      </c>
+      <c r="H76" s="1">
+        <v>204.95</v>
+      </c>
+      <c r="I76">
+        <v>387.4164988</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>5775</v>
+        <v>462</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
       <c r="C77">
-        <v>7762.4981118086789</v>
+        <f t="shared" si="1"/>
+        <v>545.20334049999997</v>
       </c>
       <c r="D77">
         <v>0.65550003000000001</v>
@@ -4416,21 +3325,28 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>703.45439999999996</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>3913.0642499999994</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>427</v>
+      </c>
+      <c r="H77" s="1">
+        <v>225.67</v>
+      </c>
+      <c r="I77">
+        <v>419.38718499999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>5800</v>
+        <v>464</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
       <c r="C78">
-        <v>8471.7648594565744</v>
+        <f t="shared" si="1"/>
+        <v>586.12629088000006</v>
       </c>
       <c r="D78">
         <v>1.04989998</v>
@@ -4439,21 +3355,28 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>702.25439999999992</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>3688.7891999999997</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>430</v>
+      </c>
+      <c r="H78" s="1">
+        <v>226.08</v>
+      </c>
+      <c r="I78">
+        <v>450.86637760000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>5997</v>
+        <v>479.76</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
       <c r="C79">
-        <v>8491.0898925207621</v>
+        <f t="shared" si="1"/>
+        <v>630.44964007999999</v>
       </c>
       <c r="D79">
         <v>1.04989998</v>
@@ -4462,21 +3385,28 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>696.55920000000003</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>3464.5141500000004</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="H79" s="1">
+        <v>227.39</v>
+      </c>
+      <c r="I79">
+        <v>484.9612616</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>5840</v>
+        <v>467.2</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
       <c r="C80">
-        <v>7044.8559347529772</v>
+        <f t="shared" si="1"/>
+        <v>599.95196534000002</v>
       </c>
       <c r="D80">
         <v>1.04989998</v>
@@ -4485,21 +3415,28 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>710.99519999999995</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>3240.2390999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="H80" s="1">
+        <v>235.17</v>
+      </c>
+      <c r="I80">
+        <v>461.5015118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>5920</v>
+        <v>473.60000000000008</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
       <c r="C81">
-        <v>3766.0060411682666</v>
+        <f t="shared" si="1"/>
+        <v>635.27202180000006</v>
       </c>
       <c r="D81">
         <v>1.04989998</v>
@@ -4508,21 +3445,28 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>684.25439999999992</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>3015.9640499999996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>439</v>
+      </c>
+      <c r="H81" s="1">
+        <v>241.56</v>
+      </c>
+      <c r="I81">
+        <v>488.67078600000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>6000</v>
+        <v>480</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
       <c r="C82">
-        <v>6899.0497448179058</v>
+        <f t="shared" si="1"/>
+        <v>648.45463566000001</v>
       </c>
       <c r="D82">
         <v>1.04989998</v>
@@ -4531,21 +3475,28 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>675.5136</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>3138.62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="H82" s="1">
+        <v>239.79</v>
+      </c>
+      <c r="I82">
+        <v>498.8112582</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>6100</v>
+        <v>488</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>6787.8969339191699</v>
+        <f t="shared" si="1"/>
+        <v>654.62336108</v>
       </c>
       <c r="D83">
         <v>1.04989998</v>
@@ -4554,21 +3505,28 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>648.77279999999996</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>3243.0491999999995</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+        <v>445</v>
+      </c>
+      <c r="H83" s="1">
+        <v>238.78</v>
+      </c>
+      <c r="I83">
+        <v>503.5564316</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>6250</v>
+        <v>500</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
       <c r="C84">
-        <v>6329.91981944504</v>
+        <f t="shared" si="1"/>
+        <v>636.63645733999999</v>
       </c>
       <c r="D84">
         <v>1.04989998</v>
@@ -4577,21 +3535,28 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>722.03200000000004</v>
+        <v>0</v>
       </c>
       <c r="G84">
-        <v>2959.7543999999998</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+        <v>448</v>
+      </c>
+      <c r="H84" s="1">
+        <v>246.26</v>
+      </c>
+      <c r="I84">
+        <v>489.7203518</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>5850</v>
+        <v>468</v>
       </c>
       <c r="B85">
         <v>0</v>
       </c>
       <c r="C85">
-        <v>5537.7391295837724</v>
+        <f t="shared" si="1"/>
+        <v>621.09097908000001</v>
       </c>
       <c r="D85">
         <v>1.04989998</v>
@@ -4600,21 +3565,28 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>2976.4596000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+      <c r="H85" s="1">
+        <v>239.25</v>
+      </c>
+      <c r="I85">
+        <v>477.76229160000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>5950</v>
+        <v>476</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>7282.1557852254082</v>
+        <f t="shared" si="1"/>
+        <v>618.79381564000005</v>
       </c>
       <c r="D86">
         <v>1.04989998</v>
@@ -4623,21 +3595,28 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>711.96799999999996</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>3053.1648</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+      <c r="H86" s="1">
+        <v>238.28</v>
+      </c>
+      <c r="I86">
+        <v>475.99524280000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>6150</v>
+        <v>492</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>6312.6019416711761</v>
+        <f t="shared" si="1"/>
+        <v>630.12215318000005</v>
       </c>
       <c r="D87">
         <v>1.04989998</v>
@@ -4646,21 +3625,28 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>706.93600000000004</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>3169.87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+        <v>457</v>
+      </c>
+      <c r="H87" s="1">
+        <v>236.11</v>
+      </c>
+      <c r="I87">
+        <v>484.7093486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>5750</v>
+        <v>460</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>7329.5759668123537</v>
+        <f t="shared" si="1"/>
+        <v>646.14758675999997</v>
       </c>
       <c r="D88">
         <v>1.04989998</v>
@@ -4669,21 +3655,28 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>701.904</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>3102.5752000000102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="H88" s="1">
+        <v>234.77</v>
+      </c>
+      <c r="I88">
+        <v>497.0366052</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>5500</v>
+        <v>440</v>
       </c>
       <c r="B89">
         <v>0</v>
       </c>
       <c r="C89">
-        <v>7217.9846983645393</v>
+        <f t="shared" si="1"/>
+        <v>629.91406426000003</v>
       </c>
       <c r="D89">
         <v>1.04989998</v>
@@ -4692,21 +3685,28 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>696.87200000000007</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>3135.2804000000101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>463</v>
+      </c>
+      <c r="H89" s="1">
+        <v>236.53</v>
+      </c>
+      <c r="I89">
+        <v>484.5492802</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>5750</v>
+        <v>460</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>9600</v>
+        <f t="shared" si="1"/>
+        <v>618.47770504000005</v>
       </c>
       <c r="D90">
         <v>0.65550003000000001</v>
@@ -4715,21 +3715,28 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>691.84</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>3167.98560000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>466</v>
+      </c>
+      <c r="H90" s="1">
+        <v>237.19</v>
+      </c>
+      <c r="I90">
+        <v>475.75208079999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>6075</v>
+        <v>486</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>6708.2654529749825</v>
+        <f t="shared" si="1"/>
+        <v>612.76419984000006</v>
       </c>
       <c r="D91">
         <v>0.65550003000000001</v>
@@ -4738,21 +3745,28 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>686.80799999999999</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>3200.6908000000299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+      <c r="H91" s="1">
+        <v>235.01</v>
+      </c>
+      <c r="I91">
+        <v>471.35707680000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>6400</v>
+        <v>512</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>8422.0366511746633</v>
+        <f t="shared" si="1"/>
+        <v>607.03786156000001</v>
       </c>
       <c r="D92">
         <v>0.65550003000000001</v>
@@ -4761,21 +3775,28 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>681.77600000000007</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>3353.3960000000402</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+      <c r="H92" s="1">
+        <v>232.28</v>
+      </c>
+      <c r="I92">
+        <v>466.95220119999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>6025</v>
+        <v>482</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>6836.1994496930683</v>
+        <f t="shared" si="1"/>
+        <v>623.95687796000004</v>
       </c>
       <c r="D93">
         <v>0.65550003000000001</v>
@@ -4784,21 +3805,28 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>676.74400000000003</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>3386.1012000000401</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+        <v>475</v>
+      </c>
+      <c r="H93" s="1">
+        <v>230.95</v>
+      </c>
+      <c r="I93">
+        <v>479.96682920000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>5650</v>
+        <v>452</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>7413.7796335684343</v>
+        <f t="shared" si="1"/>
+        <v>582.27851006000003</v>
       </c>
       <c r="D94">
         <v>0.65550003000000001</v>
@@ -4807,21 +3835,28 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>671.71199999999999</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>3318.80640000005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+        <v>478</v>
+      </c>
+      <c r="H94" s="1">
+        <v>177.26</v>
+      </c>
+      <c r="I94">
+        <v>447.90654619999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>5750</v>
+        <v>460</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>6294.5795732732549</v>
+        <f t="shared" si="1"/>
+        <v>560.28459240000007</v>
       </c>
       <c r="D95">
         <v>0.65550003000000001</v>
@@ -4830,21 +3865,28 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>666.68000000000006</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>3451.5116000000598</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="H95" s="1">
+        <v>142.19</v>
+      </c>
+      <c r="I95">
+        <v>430.98814800000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>5800</v>
+        <v>464</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>8622.2288983208236</v>
+        <f t="shared" si="1"/>
+        <v>455.47449323999996</v>
       </c>
       <c r="D96">
         <v>0.65550003000000001</v>
@@ -4853,21 +3895,28 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>661.64800000000002</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>3584.2168000000702</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+      <c r="H96" s="1">
+        <v>119.28</v>
+      </c>
+      <c r="I96">
+        <v>350.36499479999998</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>5850</v>
+        <v>468</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
       <c r="C97">
-        <v>7638.1747139158924</v>
+        <f t="shared" si="1"/>
+        <v>373.58939800000002</v>
       </c>
       <c r="D97">
         <v>0.65550003000000001</v>
@@ -4876,16 +3925,29 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>656.61599999999999</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>3616.9220000000801</v>
+        <v>500</v>
+      </c>
+      <c r="H97" s="1">
+        <v>100.99</v>
+      </c>
+      <c r="I97">
+        <v>287.37646000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H98" s="1">
+        <v>76.37</v>
+      </c>
+      <c r="I98">
+        <v>269.59626839999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Master Shi\Dropbox\WorkSpace\microgridOptimalDispatch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\microgridOptimalDispatch-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>交流负荷</t>
   </si>
@@ -42,6 +42,10 @@
   </si>
   <si>
     <t>电价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtime</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -735,6 +739,9 @@
               <c:f>input!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dtime</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -756,6 +763,294 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2094,7 +2389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2146,7 +2441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2348,10 +2643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2:H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2362,7 +2657,7 @@
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2384,8 +2679,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -2407,8 +2705,11 @@
       <c r="G2">
         <v>3623.4076</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4525</v>
       </c>
@@ -2430,8 +2731,11 @@
       <c r="G3">
         <v>3650.4076</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4050</v>
       </c>
@@ -2453,8 +2757,11 @@
       <c r="G4">
         <v>3677.4076</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4775</v>
       </c>
@@ -2476,8 +2783,11 @@
       <c r="G5">
         <v>3704.4076</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5500</v>
       </c>
@@ -2499,8 +2809,11 @@
       <c r="G6">
         <v>3731.4076</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5275</v>
       </c>
@@ -2522,8 +2835,11 @@
       <c r="G7">
         <v>3758.4076</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5050</v>
       </c>
@@ -2545,8 +2861,11 @@
       <c r="G8">
         <v>3785.4076</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5017.5</v>
       </c>
@@ -2568,8 +2887,11 @@
       <c r="G9">
         <v>3652.4076</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4985</v>
       </c>
@@ -2591,8 +2913,11 @@
       <c r="G10">
         <v>3599.4076</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4957.5</v>
       </c>
@@ -2614,8 +2939,11 @@
       <c r="G11">
         <v>3566.4076</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4930</v>
       </c>
@@ -2637,8 +2965,11 @@
       <c r="G12">
         <v>3493.4076</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5140</v>
       </c>
@@ -2660,8 +2991,11 @@
       <c r="G13">
         <v>3420.4076</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5550</v>
       </c>
@@ -2683,8 +3017,11 @@
       <c r="G14">
         <v>3447.4076</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5105</v>
       </c>
@@ -2706,8 +3043,11 @@
       <c r="G15">
         <v>3374.4076</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4860</v>
       </c>
@@ -2729,8 +3069,11 @@
       <c r="G16">
         <v>3501.4076</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5355</v>
       </c>
@@ -2752,8 +3095,11 @@
       <c r="G17">
         <v>3528.4076</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5100</v>
       </c>
@@ -2775,8 +3121,11 @@
       <c r="G18">
         <v>3555.4076</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5112.5</v>
       </c>
@@ -2798,8 +3147,11 @@
       <c r="G19">
         <v>3582.4076</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4475</v>
       </c>
@@ -2821,8 +3173,11 @@
       <c r="G20">
         <v>3589.4076</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4435</v>
       </c>
@@ -2844,8 +3199,11 @@
       <c r="G21">
         <v>3536.4076</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4395</v>
       </c>
@@ -2867,8 +3225,11 @@
       <c r="G22">
         <v>3563.4076</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4150</v>
       </c>
@@ -2890,8 +3251,11 @@
       <c r="G23">
         <v>3490.4076</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3905</v>
       </c>
@@ -2913,8 +3277,11 @@
       <c r="G24">
         <v>3517.4076</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4057.5</v>
       </c>
@@ -2936,8 +3303,11 @@
       <c r="G25">
         <v>3444.4076</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4210</v>
       </c>
@@ -2959,8 +3329,11 @@
       <c r="G26">
         <v>3471.4076</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4112.5</v>
       </c>
@@ -2982,8 +3355,11 @@
       <c r="G27">
         <v>3398.4076</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4015</v>
       </c>
@@ -3005,8 +3381,11 @@
       <c r="G28">
         <v>3325.4076</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4007.5</v>
       </c>
@@ -3028,8 +3407,11 @@
       <c r="G29">
         <v>3352.4076</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4000</v>
       </c>
@@ -3051,8 +3433,11 @@
       <c r="G30">
         <v>3379.4076</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4310</v>
       </c>
@@ -3074,8 +3459,11 @@
       <c r="G31">
         <v>3306.4076</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4620</v>
       </c>
@@ -3097,8 +3485,11 @@
       <c r="G32">
         <v>3333.4076</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4720</v>
       </c>
@@ -3120,8 +3511,11 @@
       <c r="G33">
         <v>3360.4076</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4820</v>
       </c>
@@ -3143,8 +3537,11 @@
       <c r="G34">
         <v>3287.4076</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4825</v>
       </c>
@@ -3166,8 +3563,11 @@
       <c r="G35">
         <v>3214.4076</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4830</v>
       </c>
@@ -3189,8 +3589,11 @@
       <c r="G36">
         <v>3141.4076</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5100</v>
       </c>
@@ -3212,8 +3615,11 @@
       <c r="G37">
         <v>3068.4076</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5150</v>
       </c>
@@ -3235,8 +3641,11 @@
       <c r="G38">
         <v>3195.4076</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5150</v>
       </c>
@@ -3258,8 +3667,11 @@
       <c r="G39">
         <v>3280.502</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5250</v>
       </c>
@@ -3281,8 +3693,11 @@
       <c r="G40">
         <v>3247.2719999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5100</v>
       </c>
@@ -3304,8 +3719,11 @@
       <c r="G41">
         <v>3414.0419999999995</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5150</v>
       </c>
@@ -3327,8 +3745,11 @@
       <c r="G42">
         <v>3580.8119999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5300</v>
       </c>
@@ -3350,8 +3771,11 @@
       <c r="G43">
         <v>3747.5819999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5650</v>
       </c>
@@ -3373,8 +3797,11 @@
       <c r="G44">
         <v>3718.6343999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5375</v>
       </c>
@@ -3396,8 +3823,11 @@
       <c r="G45">
         <v>3877.0659000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5300</v>
       </c>
@@ -3419,8 +3849,11 @@
       <c r="G46">
         <v>4035.4973999999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5625</v>
       </c>
@@ -3442,8 +3875,11 @@
       <c r="G47">
         <v>4193.928899999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5550</v>
       </c>
@@ -3465,8 +3901,11 @@
       <c r="G48">
         <v>4352.3603999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5425</v>
       </c>
@@ -3488,8 +3927,11 @@
       <c r="G49">
         <v>4510.7918999999993</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5300</v>
       </c>
@@ -3511,8 +3953,11 @@
       <c r="G50">
         <v>5196.4369199999983</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5150</v>
       </c>
@@ -3534,8 +3979,11 @@
       <c r="G51">
         <v>5312.9494800000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -3557,8 +4005,11 @@
       <c r="G52">
         <v>5429.4620400000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5100</v>
       </c>
@@ -3580,8 +4031,11 @@
       <c r="G53">
         <v>5545.9746000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5100</v>
       </c>
@@ -3603,8 +4057,11 @@
       <c r="G54">
         <v>5662.4871600000006</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5150</v>
       </c>
@@ -3626,8 +4083,11 @@
       <c r="G55">
         <v>5778.9997199999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5200</v>
       </c>
@@ -3649,8 +4109,11 @@
       <c r="G56">
         <v>5895.5122799999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5200</v>
       </c>
@@ -3672,8 +4135,11 @@
       <c r="G57">
         <v>6012.0248399999991</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5800</v>
       </c>
@@ -3695,8 +4161,11 @@
       <c r="G58">
         <v>6128.5374000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5850</v>
       </c>
@@ -3718,8 +4187,11 @@
       <c r="G59">
         <v>6245.0499600000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -3741,8 +4213,11 @@
       <c r="G60">
         <v>6238.4219999999978</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6050</v>
       </c>
@@ -3764,8 +4239,11 @@
       <c r="G61">
         <v>6231.7940399999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6100</v>
       </c>
@@ -3787,8 +4265,11 @@
       <c r="G62">
         <v>6225.1660799999991</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6150</v>
       </c>
@@ -3810,8 +4291,11 @@
       <c r="G63">
         <v>6218.5381200000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6200</v>
       </c>
@@ -3833,8 +4317,11 @@
       <c r="G64">
         <v>6211.9101600000004</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6150</v>
       </c>
@@ -3856,8 +4343,11 @@
       <c r="G65">
         <v>6205.2821999999996</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6100</v>
       </c>
@@ -3879,8 +4369,11 @@
       <c r="G66">
         <v>6198.6542400000008</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6050</v>
       </c>
@@ -3902,8 +4395,11 @@
       <c r="G67">
         <v>6192.0262799999991</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6000</v>
       </c>
@@ -3925,8 +4421,11 @@
       <c r="G68">
         <v>6185.3983199999993</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4945</v>
       </c>
@@ -3948,8 +4447,11 @@
       <c r="G69">
         <v>6178.7703599999995</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4590</v>
       </c>
@@ -3971,8 +4473,11 @@
       <c r="G70">
         <v>6172.1423999999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4820</v>
       </c>
@@ -3994,8 +4499,11 @@
       <c r="G71">
         <v>5898.4967999999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5050</v>
       </c>
@@ -4017,8 +4525,11 @@
       <c r="G72">
         <v>5624.8512000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5150</v>
       </c>
@@ -4040,8 +4551,11 @@
       <c r="G73">
         <v>5351.2055999999993</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5250</v>
       </c>
@@ -4063,8 +4577,11 @@
       <c r="G74">
         <v>4585.8893999999991</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5250</v>
       </c>
@@ -4086,8 +4603,11 @@
       <c r="G75">
         <v>4361.6143500000007</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5250</v>
       </c>
@@ -4109,8 +4629,11 @@
       <c r="G76">
         <v>4137.3392999999996</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5775</v>
       </c>
@@ -4132,8 +4655,11 @@
       <c r="G77">
         <v>3913.0642499999994</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5800</v>
       </c>
@@ -4155,8 +4681,11 @@
       <c r="G78">
         <v>3688.7891999999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5997</v>
       </c>
@@ -4178,8 +4707,11 @@
       <c r="G79">
         <v>3464.5141500000004</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5840</v>
       </c>
@@ -4201,8 +4733,11 @@
       <c r="G80">
         <v>3240.2390999999998</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5920</v>
       </c>
@@ -4224,8 +4759,11 @@
       <c r="G81">
         <v>3015.9640499999996</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>6000</v>
       </c>
@@ -4247,8 +4785,11 @@
       <c r="G82">
         <v>3138.62</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>6100</v>
       </c>
@@ -4270,8 +4811,11 @@
       <c r="G83">
         <v>3243.0491999999995</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6250</v>
       </c>
@@ -4293,8 +4837,11 @@
       <c r="G84">
         <v>2959.7543999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5850</v>
       </c>
@@ -4316,8 +4863,11 @@
       <c r="G85">
         <v>2976.4596000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5950</v>
       </c>
@@ -4339,8 +4889,11 @@
       <c r="G86">
         <v>3053.1648</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6150</v>
       </c>
@@ -4362,8 +4915,11 @@
       <c r="G87">
         <v>3169.87</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5750</v>
       </c>
@@ -4385,8 +4941,11 @@
       <c r="G88">
         <v>3102.5752000000102</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5500</v>
       </c>
@@ -4408,8 +4967,11 @@
       <c r="G89">
         <v>3135.2804000000101</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5750</v>
       </c>
@@ -4431,8 +4993,11 @@
       <c r="G90">
         <v>3167.98560000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6075</v>
       </c>
@@ -4454,8 +5019,11 @@
       <c r="G91">
         <v>3200.6908000000299</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6400</v>
       </c>
@@ -4477,8 +5045,11 @@
       <c r="G92">
         <v>3353.3960000000402</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6025</v>
       </c>
@@ -4500,8 +5071,11 @@
       <c r="G93">
         <v>3386.1012000000401</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5650</v>
       </c>
@@ -4523,8 +5097,11 @@
       <c r="G94">
         <v>3318.80640000005</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5750</v>
       </c>
@@ -4546,8 +5123,11 @@
       <c r="G95">
         <v>3451.5116000000598</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5800</v>
       </c>
@@ -4569,8 +5149,11 @@
       <c r="G96">
         <v>3584.2168000000702</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5850</v>
       </c>
@@ -4591,6 +5174,9 @@
       </c>
       <c r="G97">
         <v>3616.9220000000801</v>
+      </c>
+      <c r="H97">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>交流负荷</t>
   </si>
@@ -46,6 +46,14 @@
   </si>
   <si>
     <t>dtime</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>风机出力上限</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>风机出力下限</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -736,7 +744,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>input!$H$1</c:f>
+              <c:f>input!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -759,7 +767,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>input!$H$2:$H$97</c:f>
+              <c:f>input!$J$2:$J$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -2309,13 +2317,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>271462</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>42862</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -2643,21 +2651,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H97"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="13.625" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2680,10 +2688,16 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -2706,10 +2720,18 @@
         <v>3623.4076</v>
       </c>
       <c r="H2">
+        <f>C2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>H2+200</f>
+        <v>200</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4525</v>
       </c>
@@ -2732,10 +2754,18 @@
         <v>3650.4076</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">C3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">H3+200</f>
+        <v>200</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4050</v>
       </c>
@@ -2758,10 +2788,18 @@
         <v>3677.4076</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4775</v>
       </c>
@@ -2784,10 +2822,18 @@
         <v>3704.4076</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5500</v>
       </c>
@@ -2810,10 +2856,18 @@
         <v>3731.4076</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5275</v>
       </c>
@@ -2836,10 +2890,18 @@
         <v>3758.4076</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5050</v>
       </c>
@@ -2862,10 +2924,18 @@
         <v>3785.4076</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5017.5</v>
       </c>
@@ -2888,10 +2958,18 @@
         <v>3652.4076</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4985</v>
       </c>
@@ -2914,10 +2992,18 @@
         <v>3599.4076</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4957.5</v>
       </c>
@@ -2940,10 +3026,18 @@
         <v>3566.4076</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4930</v>
       </c>
@@ -2966,10 +3060,18 @@
         <v>3493.4076</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5140</v>
       </c>
@@ -2992,10 +3094,18 @@
         <v>3420.4076</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5550</v>
       </c>
@@ -3018,10 +3128,18 @@
         <v>3447.4076</v>
       </c>
       <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5105</v>
       </c>
@@ -3044,10 +3162,18 @@
         <v>3374.4076</v>
       </c>
       <c r="H15">
+        <f t="shared" si="0"/>
+        <v>0.122170075</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>200.12217007500001</v>
+      </c>
+      <c r="J15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4860</v>
       </c>
@@ -3070,10 +3196,18 @@
         <v>3501.4076</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0.24434015000000001</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>200.24434015</v>
+      </c>
+      <c r="J16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5355</v>
       </c>
@@ -3096,10 +3230,18 @@
         <v>3528.4076</v>
       </c>
       <c r="H17">
+        <f t="shared" si="0"/>
+        <v>1.5096731000000001</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>201.50967309999999</v>
+      </c>
+      <c r="J17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5100</v>
       </c>
@@ -3122,10 +3264,18 @@
         <v>3555.4076</v>
       </c>
       <c r="H18">
+        <f t="shared" si="0"/>
+        <v>2.77500605</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>202.77500605</v>
+      </c>
+      <c r="J18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5112.5</v>
       </c>
@@ -3148,10 +3298,18 @@
         <v>3582.4076</v>
       </c>
       <c r="H19">
+        <f t="shared" si="0"/>
+        <v>5.9601544999999998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>205.96015449999999</v>
+      </c>
+      <c r="J19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4475</v>
       </c>
@@ -3174,10 +3332,18 @@
         <v>3589.4076</v>
       </c>
       <c r="H20">
+        <f t="shared" si="0"/>
+        <v>9.1453029499999996</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>209.14530295</v>
+      </c>
+      <c r="J20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4435</v>
       </c>
@@ -3200,10 +3366,18 @@
         <v>3536.4076</v>
       </c>
       <c r="H21">
+        <f t="shared" si="0"/>
+        <v>13.94484173</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>213.94484173000001</v>
+      </c>
+      <c r="J21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4395</v>
       </c>
@@ -3226,10 +3400,18 @@
         <v>3563.4076</v>
       </c>
       <c r="H22">
+        <f t="shared" si="0"/>
+        <v>18.744380499999998</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>218.74438050000001</v>
+      </c>
+      <c r="J22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4150</v>
       </c>
@@ -3252,10 +3434,18 @@
         <v>3490.4076</v>
       </c>
       <c r="H23">
+        <f t="shared" si="0"/>
+        <v>26.916686049999999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>226.91668605000001</v>
+      </c>
+      <c r="J23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3905</v>
       </c>
@@ -3278,10 +3468,18 @@
         <v>3517.4076</v>
       </c>
       <c r="H24">
+        <f t="shared" si="0"/>
+        <v>35.0889916</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>235.08899159999999</v>
+      </c>
+      <c r="J24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4057.5</v>
       </c>
@@ -3304,10 +3502,18 @@
         <v>3444.4076</v>
       </c>
       <c r="H25">
+        <f t="shared" si="0"/>
+        <v>47.995387649999998</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>247.99538765</v>
+      </c>
+      <c r="J25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4210</v>
       </c>
@@ -3330,10 +3536,18 @@
         <v>3471.4076</v>
       </c>
       <c r="H26">
+        <f t="shared" si="0"/>
+        <v>60.901783700000003</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>260.90178370000001</v>
+      </c>
+      <c r="J26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4112.5</v>
       </c>
@@ -3356,10 +3570,18 @@
         <v>3398.4076</v>
       </c>
       <c r="H27">
+        <f t="shared" si="0"/>
+        <v>74.397214079999998</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>274.39721408000003</v>
+      </c>
+      <c r="J27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4015</v>
       </c>
@@ -3382,10 +3604,18 @@
         <v>3325.4076</v>
       </c>
       <c r="H28">
+        <f t="shared" si="0"/>
+        <v>87.892644450000006</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>287.89264445000003</v>
+      </c>
+      <c r="J28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4007.5</v>
       </c>
@@ -3408,10 +3638,18 @@
         <v>3352.4076</v>
       </c>
       <c r="H29">
+        <f t="shared" si="0"/>
+        <v>110.5464674</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>310.54646739999998</v>
+      </c>
+      <c r="J29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4000</v>
       </c>
@@ -3434,10 +3672,18 @@
         <v>3379.4076</v>
       </c>
       <c r="H30">
+        <f t="shared" si="0"/>
+        <v>133.2002904</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>333.20029039999997</v>
+      </c>
+      <c r="J30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4310</v>
       </c>
@@ -3460,10 +3706,18 @@
         <v>3306.4076</v>
       </c>
       <c r="H31">
+        <f t="shared" si="0"/>
+        <v>160.94598769999999</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>360.94598769999999</v>
+      </c>
+      <c r="J31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4620</v>
       </c>
@@ -3486,10 +3740,18 @@
         <v>3333.4076</v>
       </c>
       <c r="H32">
+        <f t="shared" si="0"/>
+        <v>188.69168500000001</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>388.69168500000001</v>
+      </c>
+      <c r="J32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4720</v>
       </c>
@@ -3512,10 +3774,18 @@
         <v>3360.4076</v>
       </c>
       <c r="H33">
+        <f t="shared" si="0"/>
+        <v>203.31718860000001</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>403.31718860000001</v>
+      </c>
+      <c r="J33">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4820</v>
       </c>
@@ -3538,10 +3808,18 @@
         <v>3287.4076</v>
       </c>
       <c r="H34">
+        <f t="shared" si="0"/>
+        <v>217.94269209999999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>417.94269209999999</v>
+      </c>
+      <c r="J34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4825</v>
       </c>
@@ -3564,10 +3842,18 @@
         <v>3214.4076</v>
       </c>
       <c r="H35">
+        <f t="shared" si="0"/>
+        <v>238.2141986</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>438.21419860000003</v>
+      </c>
+      <c r="J35">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4830</v>
       </c>
@@ -3590,10 +3876,18 @@
         <v>3141.4076</v>
       </c>
       <c r="H36">
+        <f t="shared" si="0"/>
+        <v>258.485705</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>458.485705</v>
+      </c>
+      <c r="J36">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5100</v>
       </c>
@@ -3616,10 +3910,18 @@
         <v>3068.4076</v>
       </c>
       <c r="H37">
+        <f t="shared" si="0"/>
+        <v>265.54975350000001</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>465.54975350000001</v>
+      </c>
+      <c r="J37">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5150</v>
       </c>
@@ -3642,10 +3944,18 @@
         <v>3195.4076</v>
       </c>
       <c r="H38">
+        <f t="shared" si="0"/>
+        <v>272.6138019</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>472.6138019</v>
+      </c>
+      <c r="J38">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5150</v>
       </c>
@@ -3668,10 +3978,18 @@
         <v>3280.502</v>
       </c>
       <c r="H39">
+        <f t="shared" si="0"/>
+        <v>286.39720449999999</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>486.39720449999999</v>
+      </c>
+      <c r="J39">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5250</v>
       </c>
@@ -3694,10 +4012,18 @@
         <v>3247.2719999999999</v>
       </c>
       <c r="H40">
+        <f t="shared" si="0"/>
+        <v>300.1806072</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>500.1806072</v>
+      </c>
+      <c r="J40">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5100</v>
       </c>
@@ -3720,10 +4046,18 @@
         <v>3414.0419999999995</v>
       </c>
       <c r="H41">
+        <f t="shared" si="0"/>
+        <v>310.25963860000002</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>510.25963860000002</v>
+      </c>
+      <c r="J41">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5150</v>
       </c>
@@ -3746,10 +4080,18 @@
         <v>3580.8119999999999</v>
       </c>
       <c r="H42">
+        <f t="shared" si="0"/>
+        <v>320.33866999999998</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>520.33866999999998</v>
+      </c>
+      <c r="J42">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5300</v>
       </c>
@@ -3772,10 +4114,18 @@
         <v>3747.5819999999999</v>
       </c>
       <c r="H43">
+        <f t="shared" si="0"/>
+        <v>327.3678127</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>527.36781270000006</v>
+      </c>
+      <c r="J43">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5650</v>
       </c>
@@ -3798,10 +4148,18 @@
         <v>3718.6343999999999</v>
       </c>
       <c r="H44">
+        <f t="shared" si="0"/>
+        <v>334.39695540000002</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>534.39695540000002</v>
+      </c>
+      <c r="J44">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5375</v>
       </c>
@@ -3824,10 +4182,18 @@
         <v>3877.0659000000001</v>
       </c>
       <c r="H45">
+        <f t="shared" si="0"/>
+        <v>336.11169969999997</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>536.11169969999992</v>
+      </c>
+      <c r="J45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5300</v>
       </c>
@@ -3850,10 +4216,18 @@
         <v>4035.4973999999997</v>
       </c>
       <c r="H46">
+        <f t="shared" si="0"/>
+        <v>337.82644399999998</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>537.82644400000004</v>
+      </c>
+      <c r="J46">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5625</v>
       </c>
@@ -3876,10 +4250,18 @@
         <v>4193.928899999999</v>
       </c>
       <c r="H47">
+        <f t="shared" si="0"/>
+        <v>343.89131570000001</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>543.89131569999995</v>
+      </c>
+      <c r="J47">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5550</v>
       </c>
@@ -3902,10 +4284,18 @@
         <v>4352.3603999999996</v>
       </c>
       <c r="H48">
+        <f t="shared" si="0"/>
+        <v>349.95618739999998</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>549.95618739999998</v>
+      </c>
+      <c r="J48">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5425</v>
       </c>
@@ -3928,10 +4318,18 @@
         <v>4510.7918999999993</v>
       </c>
       <c r="H49">
+        <f t="shared" si="0"/>
+        <v>354.17978160000001</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>554.17978160000007</v>
+      </c>
+      <c r="J49">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5300</v>
       </c>
@@ -3954,10 +4352,18 @@
         <v>5196.4369199999983</v>
       </c>
       <c r="H50">
+        <f t="shared" si="0"/>
+        <v>358.40337570000003</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>558.40337569999997</v>
+      </c>
+      <c r="J50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5150</v>
       </c>
@@ -3980,10 +4386,18 @@
         <v>5312.9494800000002</v>
       </c>
       <c r="H51">
+        <f t="shared" si="0"/>
+        <v>355.48874669999998</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>555.48874669999998</v>
+      </c>
+      <c r="J51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -4006,10 +4420,18 @@
         <v>5429.4620400000003</v>
       </c>
       <c r="H52">
+        <f t="shared" si="0"/>
+        <v>352.57411769999999</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>552.57411769999999</v>
+      </c>
+      <c r="J52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5100</v>
       </c>
@@ -4032,10 +4454,18 @@
         <v>5545.9746000000005</v>
       </c>
       <c r="H53">
+        <f t="shared" si="0"/>
+        <v>347.5825974</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>547.58259739999994</v>
+      </c>
+      <c r="J53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5100</v>
       </c>
@@ -4058,10 +4488,18 @@
         <v>5662.4871600000006</v>
       </c>
       <c r="H54">
+        <f t="shared" si="0"/>
+        <v>342.59107699999998</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>542.59107700000004</v>
+      </c>
+      <c r="J54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5150</v>
       </c>
@@ -4084,10 +4522,18 @@
         <v>5778.9997199999998</v>
       </c>
       <c r="H55">
+        <f t="shared" si="0"/>
+        <v>335.38740569999999</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>535.38740570000004</v>
+      </c>
+      <c r="J55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5200</v>
       </c>
@@ -4110,10 +4556,18 @@
         <v>5895.5122799999999</v>
       </c>
       <c r="H56">
+        <f t="shared" si="0"/>
+        <v>328.18373430000003</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>528.18373429999997</v>
+      </c>
+      <c r="J56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5200</v>
       </c>
@@ -4136,10 +4590,18 @@
         <v>6012.0248399999991</v>
       </c>
       <c r="H57">
+        <f t="shared" si="0"/>
+        <v>317.71637659999999</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>517.71637659999999</v>
+      </c>
+      <c r="J57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5800</v>
       </c>
@@ -4162,10 +4624,18 @@
         <v>6128.5374000000002</v>
       </c>
       <c r="H58">
+        <f t="shared" si="0"/>
+        <v>307.24901890000001</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>507.24901890000001</v>
+      </c>
+      <c r="J58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5850</v>
       </c>
@@ -4188,10 +4658,18 @@
         <v>6245.0499600000003</v>
       </c>
       <c r="H59">
+        <f t="shared" si="0"/>
+        <v>302.94688689999998</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>502.94688689999998</v>
+      </c>
+      <c r="J59">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -4214,10 +4692,18 @@
         <v>6238.4219999999978</v>
       </c>
       <c r="H60">
+        <f t="shared" si="0"/>
+        <v>298.64475479999999</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>498.64475479999999</v>
+      </c>
+      <c r="J60">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6050</v>
       </c>
@@ -4240,10 +4726,18 @@
         <v>6231.7940399999998</v>
       </c>
       <c r="H61">
+        <f t="shared" si="0"/>
+        <v>275.68114350000002</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>475.68114350000002</v>
+      </c>
+      <c r="J61">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6100</v>
       </c>
@@ -4266,10 +4760,18 @@
         <v>6225.1660799999991</v>
       </c>
       <c r="H62">
+        <f t="shared" si="0"/>
+        <v>252.7175321</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>452.71753209999997</v>
+      </c>
+      <c r="J62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6150</v>
       </c>
@@ -4292,10 +4794,18 @@
         <v>6218.5381200000002</v>
       </c>
       <c r="H63">
+        <f t="shared" si="0"/>
+        <v>236.1373073</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>436.13730729999997</v>
+      </c>
+      <c r="J63">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6200</v>
       </c>
@@ -4318,10 +4828,18 @@
         <v>6211.9101600000004</v>
       </c>
       <c r="H64">
+        <f t="shared" si="0"/>
+        <v>219.55708240000001</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>419.55708240000001</v>
+      </c>
+      <c r="J64">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6150</v>
       </c>
@@ -4344,10 +4862,18 @@
         <v>6205.2821999999996</v>
       </c>
       <c r="H65">
+        <f t="shared" si="0"/>
+        <v>205.67332579999999</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>405.67332579999999</v>
+      </c>
+      <c r="J65">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6100</v>
       </c>
@@ -4370,10 +4896,18 @@
         <v>6198.6542400000008</v>
       </c>
       <c r="H66">
+        <f t="shared" si="0"/>
+        <v>191.78956909999999</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>391.78956909999999</v>
+      </c>
+      <c r="J66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6050</v>
       </c>
@@ -4396,10 +4930,18 @@
         <v>6192.0262799999991</v>
       </c>
       <c r="H67">
+        <f t="shared" ref="H67:H97" si="2">C67</f>
+        <v>174.74248</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I97" si="3">H67+200</f>
+        <v>374.74248</v>
+      </c>
+      <c r="J67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6000</v>
       </c>
@@ -4422,10 +4964,18 @@
         <v>6185.3983199999993</v>
       </c>
       <c r="H68">
+        <f t="shared" si="2"/>
+        <v>157.695391</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>357.69539099999997</v>
+      </c>
+      <c r="J68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4945</v>
       </c>
@@ -4448,10 +4998,18 @@
         <v>6178.7703599999995</v>
       </c>
       <c r="H69">
+        <f t="shared" si="2"/>
+        <v>133.71078679999999</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>333.71078679999999</v>
+      </c>
+      <c r="J69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4590</v>
       </c>
@@ -4474,10 +5032,18 @@
         <v>6172.1423999999997</v>
       </c>
       <c r="H70">
+        <f t="shared" si="2"/>
+        <v>109.7261826</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>309.72618260000002</v>
+      </c>
+      <c r="J70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4820</v>
       </c>
@@ -4500,10 +5066,18 @@
         <v>5898.4967999999999</v>
       </c>
       <c r="H71">
+        <f t="shared" si="2"/>
+        <v>84.681316679999995</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>284.68131668000001</v>
+      </c>
+      <c r="J71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5050</v>
       </c>
@@ -4526,10 +5100,18 @@
         <v>5624.8512000000001</v>
       </c>
       <c r="H72">
+        <f t="shared" si="2"/>
+        <v>59.636450750000002</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>259.63645074999999</v>
+      </c>
+      <c r="J72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5150</v>
       </c>
@@ -4552,10 +5134,18 @@
         <v>5351.2055999999993</v>
       </c>
       <c r="H73">
+        <f t="shared" si="2"/>
+        <v>48.619327679999998</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>248.61932768</v>
+      </c>
+      <c r="J73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5250</v>
       </c>
@@ -4578,10 +5168,18 @@
         <v>4585.8893999999991</v>
       </c>
       <c r="H74">
+        <f t="shared" si="2"/>
+        <v>37.6022046</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>237.60220459999999</v>
+      </c>
+      <c r="J74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5250</v>
       </c>
@@ -4604,10 +5202,18 @@
         <v>4361.6143500000007</v>
       </c>
       <c r="H75">
+        <f t="shared" si="2"/>
+        <v>27.741334049999999</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>227.74133405000001</v>
+      </c>
+      <c r="J75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5250</v>
       </c>
@@ -4630,10 +5236,18 @@
         <v>4137.3392999999996</v>
       </c>
       <c r="H76">
+        <f t="shared" si="2"/>
+        <v>17.880463500000001</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>217.88046349999999</v>
+      </c>
+      <c r="J76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5775</v>
       </c>
@@ -4656,10 +5270,18 @@
         <v>3913.0642499999994</v>
       </c>
       <c r="H77">
+        <f t="shared" si="2"/>
+        <v>12.8889432</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>212.8889432</v>
+      </c>
+      <c r="J77">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5800</v>
       </c>
@@ -4682,10 +5304,18 @@
         <v>3688.7891999999997</v>
       </c>
       <c r="H78">
+        <f t="shared" si="2"/>
+        <v>7.8974228999999996</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>207.89742290000001</v>
+      </c>
+      <c r="J78">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5997</v>
       </c>
@@ -4708,10 +5338,18 @@
         <v>3464.5141500000004</v>
       </c>
       <c r="H79">
+        <f t="shared" si="2"/>
+        <v>4.6250100999999999</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>204.6250101</v>
+      </c>
+      <c r="J79">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5840</v>
       </c>
@@ -4734,10 +5372,18 @@
         <v>3240.2390999999998</v>
       </c>
       <c r="H80">
+        <f t="shared" si="2"/>
+        <v>1.3525973</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>201.35259730000001</v>
+      </c>
+      <c r="J80">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5920</v>
       </c>
@@ -4760,10 +5406,18 @@
         <v>3015.9640499999996</v>
       </c>
       <c r="H81">
+        <f t="shared" si="2"/>
+        <v>0.711204375</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>200.71120437499999</v>
+      </c>
+      <c r="J81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>6000</v>
       </c>
@@ -4786,10 +5440,18 @@
         <v>3138.62</v>
       </c>
       <c r="H82">
+        <f t="shared" si="2"/>
+        <v>6.9811449999999997E-2</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>200.06981145</v>
+      </c>
+      <c r="J82">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>6100</v>
       </c>
@@ -4812,10 +5474,18 @@
         <v>3243.0491999999995</v>
       </c>
       <c r="H83">
+        <f t="shared" si="2"/>
+        <v>3.4905724999999999E-2</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>200.03490572499999</v>
+      </c>
+      <c r="J83">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6250</v>
       </c>
@@ -4838,10 +5508,18 @@
         <v>2959.7543999999998</v>
       </c>
       <c r="H84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J84">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5850</v>
       </c>
@@ -4864,10 +5542,18 @@
         <v>2976.4596000000001</v>
       </c>
       <c r="H85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J85">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5950</v>
       </c>
@@ -4890,10 +5576,18 @@
         <v>3053.1648</v>
       </c>
       <c r="H86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J86">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6150</v>
       </c>
@@ -4916,10 +5610,18 @@
         <v>3169.87</v>
       </c>
       <c r="H87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J87">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5750</v>
       </c>
@@ -4942,10 +5644,18 @@
         <v>3102.5752000000102</v>
       </c>
       <c r="H88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J88">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5500</v>
       </c>
@@ -4968,10 +5678,18 @@
         <v>3135.2804000000101</v>
       </c>
       <c r="H89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J89">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5750</v>
       </c>
@@ -4994,10 +5712,18 @@
         <v>3167.98560000002</v>
       </c>
       <c r="H90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J90">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6075</v>
       </c>
@@ -5020,10 +5746,18 @@
         <v>3200.6908000000299</v>
       </c>
       <c r="H91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J91">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6400</v>
       </c>
@@ -5046,10 +5780,18 @@
         <v>3353.3960000000402</v>
       </c>
       <c r="H92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J92">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6025</v>
       </c>
@@ -5072,10 +5814,18 @@
         <v>3386.1012000000401</v>
       </c>
       <c r="H93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J93">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5650</v>
       </c>
@@ -5098,10 +5848,18 @@
         <v>3318.80640000005</v>
       </c>
       <c r="H94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J94">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5750</v>
       </c>
@@ -5124,10 +5882,18 @@
         <v>3451.5116000000598</v>
       </c>
       <c r="H95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J95">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5800</v>
       </c>
@@ -5150,10 +5916,18 @@
         <v>3584.2168000000702</v>
       </c>
       <c r="H96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J96">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5850</v>
       </c>
@@ -5176,6 +5950,14 @@
         <v>3616.9220000000801</v>
       </c>
       <c r="H97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J97">
         <v>95</v>
       </c>
     </row>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\microgridOptimalDispatch-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD96EC3-3204-4E69-B270-3D6A3E4B8AB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>交流负荷</t>
   </si>
@@ -48,11 +49,19 @@
     <t>dtime</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>可削减负荷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可转移负荷</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2642,11 +2651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H97"/>
+      <selection activeCell="I2" sqref="I2:I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2657,7 +2666,7 @@
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2682,8 +2691,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -2708,8 +2723,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4525</v>
       </c>
@@ -2734,8 +2755,14 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="J3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4050</v>
       </c>
@@ -2760,8 +2787,14 @@
       <c r="H4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>500</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4775</v>
       </c>
@@ -2786,8 +2819,14 @@
       <c r="H5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>500</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5500</v>
       </c>
@@ -2812,8 +2851,14 @@
       <c r="H6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>500</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5275</v>
       </c>
@@ -2838,8 +2883,14 @@
       <c r="H7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>500</v>
+      </c>
+      <c r="J7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5050</v>
       </c>
@@ -2864,8 +2915,14 @@
       <c r="H8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>500</v>
+      </c>
+      <c r="J8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5017.5</v>
       </c>
@@ -2890,8 +2947,14 @@
       <c r="H9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>500</v>
+      </c>
+      <c r="J9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4985</v>
       </c>
@@ -2916,8 +2979,14 @@
       <c r="H10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>500</v>
+      </c>
+      <c r="J10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>4957.5</v>
       </c>
@@ -2942,8 +3011,14 @@
       <c r="H11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>500</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4930</v>
       </c>
@@ -2968,8 +3043,14 @@
       <c r="H12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>500</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5140</v>
       </c>
@@ -2994,8 +3075,14 @@
       <c r="H13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>500</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5550</v>
       </c>
@@ -3020,8 +3107,14 @@
       <c r="H14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>500</v>
+      </c>
+      <c r="J14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5105</v>
       </c>
@@ -3046,8 +3139,14 @@
       <c r="H15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>500</v>
+      </c>
+      <c r="J15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4860</v>
       </c>
@@ -3072,8 +3171,14 @@
       <c r="H16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>500</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5355</v>
       </c>
@@ -3098,8 +3203,14 @@
       <c r="H17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>500</v>
+      </c>
+      <c r="J17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5100</v>
       </c>
@@ -3124,8 +3235,14 @@
       <c r="H18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>500</v>
+      </c>
+      <c r="J18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5112.5</v>
       </c>
@@ -3150,8 +3267,14 @@
       <c r="H19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>500</v>
+      </c>
+      <c r="J19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4475</v>
       </c>
@@ -3176,8 +3299,14 @@
       <c r="H20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>500</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4435</v>
       </c>
@@ -3202,8 +3331,14 @@
       <c r="H21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>500</v>
+      </c>
+      <c r="J21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4395</v>
       </c>
@@ -3228,8 +3363,14 @@
       <c r="H22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>500</v>
+      </c>
+      <c r="J22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4150</v>
       </c>
@@ -3254,8 +3395,14 @@
       <c r="H23">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>500</v>
+      </c>
+      <c r="J23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3905</v>
       </c>
@@ -3280,8 +3427,14 @@
       <c r="H24">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>500</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4057.5</v>
       </c>
@@ -3306,8 +3459,14 @@
       <c r="H25">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>500</v>
+      </c>
+      <c r="J25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4210</v>
       </c>
@@ -3332,8 +3491,14 @@
       <c r="H26">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>500</v>
+      </c>
+      <c r="J26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4112.5</v>
       </c>
@@ -3358,8 +3523,14 @@
       <c r="H27">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>500</v>
+      </c>
+      <c r="J27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4015</v>
       </c>
@@ -3384,8 +3555,14 @@
       <c r="H28">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>500</v>
+      </c>
+      <c r="J28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4007.5</v>
       </c>
@@ -3410,8 +3587,14 @@
       <c r="H29">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>500</v>
+      </c>
+      <c r="J29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4000</v>
       </c>
@@ -3436,8 +3619,14 @@
       <c r="H30">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>500</v>
+      </c>
+      <c r="J30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>4310</v>
       </c>
@@ -3462,8 +3651,14 @@
       <c r="H31">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>500</v>
+      </c>
+      <c r="J31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4620</v>
       </c>
@@ -3488,8 +3683,14 @@
       <c r="H32">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>500</v>
+      </c>
+      <c r="J32">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4720</v>
       </c>
@@ -3514,8 +3715,14 @@
       <c r="H33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>500</v>
+      </c>
+      <c r="J33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>4820</v>
       </c>
@@ -3540,8 +3747,14 @@
       <c r="H34">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>500</v>
+      </c>
+      <c r="J34">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4825</v>
       </c>
@@ -3566,8 +3779,14 @@
       <c r="H35">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>500</v>
+      </c>
+      <c r="J35">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4830</v>
       </c>
@@ -3592,8 +3811,14 @@
       <c r="H36">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>500</v>
+      </c>
+      <c r="J36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5100</v>
       </c>
@@ -3618,8 +3843,14 @@
       <c r="H37">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>500</v>
+      </c>
+      <c r="J37">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5150</v>
       </c>
@@ -3644,8 +3875,14 @@
       <c r="H38">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>500</v>
+      </c>
+      <c r="J38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5150</v>
       </c>
@@ -3670,8 +3907,14 @@
       <c r="H39">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>500</v>
+      </c>
+      <c r="J39">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5250</v>
       </c>
@@ -3696,8 +3939,14 @@
       <c r="H40">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>500</v>
+      </c>
+      <c r="J40">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5100</v>
       </c>
@@ -3722,8 +3971,14 @@
       <c r="H41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>500</v>
+      </c>
+      <c r="J41">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5150</v>
       </c>
@@ -3748,8 +4003,14 @@
       <c r="H42">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>500</v>
+      </c>
+      <c r="J42">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5300</v>
       </c>
@@ -3774,8 +4035,14 @@
       <c r="H43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>500</v>
+      </c>
+      <c r="J43">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5650</v>
       </c>
@@ -3800,8 +4067,14 @@
       <c r="H44">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>500</v>
+      </c>
+      <c r="J44">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5375</v>
       </c>
@@ -3826,8 +4099,14 @@
       <c r="H45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>500</v>
+      </c>
+      <c r="J45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5300</v>
       </c>
@@ -3852,8 +4131,14 @@
       <c r="H46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>500</v>
+      </c>
+      <c r="J46">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5625</v>
       </c>
@@ -3878,8 +4163,14 @@
       <c r="H47">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>500</v>
+      </c>
+      <c r="J47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5550</v>
       </c>
@@ -3904,8 +4195,14 @@
       <c r="H48">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>500</v>
+      </c>
+      <c r="J48">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5425</v>
       </c>
@@ -3930,8 +4227,14 @@
       <c r="H49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>500</v>
+      </c>
+      <c r="J49">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5300</v>
       </c>
@@ -3956,8 +4259,14 @@
       <c r="H50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>500</v>
+      </c>
+      <c r="J50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5150</v>
       </c>
@@ -3982,8 +4291,14 @@
       <c r="H51">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>500</v>
+      </c>
+      <c r="J51">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -4008,8 +4323,14 @@
       <c r="H52">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>500</v>
+      </c>
+      <c r="J52">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5100</v>
       </c>
@@ -4034,8 +4355,14 @@
       <c r="H53">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>500</v>
+      </c>
+      <c r="J53">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5100</v>
       </c>
@@ -4060,8 +4387,14 @@
       <c r="H54">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>500</v>
+      </c>
+      <c r="J54">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5150</v>
       </c>
@@ -4086,8 +4419,14 @@
       <c r="H55">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>500</v>
+      </c>
+      <c r="J55">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5200</v>
       </c>
@@ -4112,8 +4451,14 @@
       <c r="H56">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>500</v>
+      </c>
+      <c r="J56">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5200</v>
       </c>
@@ -4138,8 +4483,14 @@
       <c r="H57">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>500</v>
+      </c>
+      <c r="J57">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5800</v>
       </c>
@@ -4164,8 +4515,14 @@
       <c r="H58">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>500</v>
+      </c>
+      <c r="J58">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5850</v>
       </c>
@@ -4190,8 +4547,14 @@
       <c r="H59">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>500</v>
+      </c>
+      <c r="J59">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -4216,8 +4579,14 @@
       <c r="H60">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>500</v>
+      </c>
+      <c r="J60">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6050</v>
       </c>
@@ -4242,8 +4611,14 @@
       <c r="H61">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>500</v>
+      </c>
+      <c r="J61">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6100</v>
       </c>
@@ -4268,8 +4643,14 @@
       <c r="H62">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>500</v>
+      </c>
+      <c r="J62">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6150</v>
       </c>
@@ -4294,8 +4675,14 @@
       <c r="H63">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>500</v>
+      </c>
+      <c r="J63">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>6200</v>
       </c>
@@ -4320,8 +4707,14 @@
       <c r="H64">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>500</v>
+      </c>
+      <c r="J64">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>6150</v>
       </c>
@@ -4346,8 +4739,14 @@
       <c r="H65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>500</v>
+      </c>
+      <c r="J65">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6100</v>
       </c>
@@ -4372,8 +4771,14 @@
       <c r="H66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>500</v>
+      </c>
+      <c r="J66">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>6050</v>
       </c>
@@ -4398,8 +4803,14 @@
       <c r="H67">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>500</v>
+      </c>
+      <c r="J67">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>6000</v>
       </c>
@@ -4424,8 +4835,14 @@
       <c r="H68">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>500</v>
+      </c>
+      <c r="J68">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4945</v>
       </c>
@@ -4450,8 +4867,14 @@
       <c r="H69">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>500</v>
+      </c>
+      <c r="J69">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4590</v>
       </c>
@@ -4476,8 +4899,14 @@
       <c r="H70">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>500</v>
+      </c>
+      <c r="J70">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4820</v>
       </c>
@@ -4502,8 +4931,14 @@
       <c r="H71">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>500</v>
+      </c>
+      <c r="J71">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5050</v>
       </c>
@@ -4528,8 +4963,14 @@
       <c r="H72">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>500</v>
+      </c>
+      <c r="J72">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5150</v>
       </c>
@@ -4554,8 +4995,14 @@
       <c r="H73">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>500</v>
+      </c>
+      <c r="J73">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5250</v>
       </c>
@@ -4580,8 +5027,14 @@
       <c r="H74">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>500</v>
+      </c>
+      <c r="J74">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5250</v>
       </c>
@@ -4606,8 +5059,14 @@
       <c r="H75">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>500</v>
+      </c>
+      <c r="J75">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5250</v>
       </c>
@@ -4632,8 +5091,14 @@
       <c r="H76">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>500</v>
+      </c>
+      <c r="J76">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5775</v>
       </c>
@@ -4658,8 +5123,14 @@
       <c r="H77">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>500</v>
+      </c>
+      <c r="J77">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5800</v>
       </c>
@@ -4684,8 +5155,14 @@
       <c r="H78">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>500</v>
+      </c>
+      <c r="J78">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5997</v>
       </c>
@@ -4710,8 +5187,14 @@
       <c r="H79">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>500</v>
+      </c>
+      <c r="J79">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5840</v>
       </c>
@@ -4736,8 +5219,14 @@
       <c r="H80">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>500</v>
+      </c>
+      <c r="J80">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5920</v>
       </c>
@@ -4762,8 +5251,14 @@
       <c r="H81">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>500</v>
+      </c>
+      <c r="J81">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>6000</v>
       </c>
@@ -4788,8 +5283,14 @@
       <c r="H82">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>500</v>
+      </c>
+      <c r="J82">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>6100</v>
       </c>
@@ -4814,8 +5315,14 @@
       <c r="H83">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>500</v>
+      </c>
+      <c r="J83">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6250</v>
       </c>
@@ -4840,8 +5347,14 @@
       <c r="H84">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>500</v>
+      </c>
+      <c r="J84">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5850</v>
       </c>
@@ -4866,8 +5379,14 @@
       <c r="H85">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>500</v>
+      </c>
+      <c r="J85">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5950</v>
       </c>
@@ -4892,8 +5411,14 @@
       <c r="H86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>500</v>
+      </c>
+      <c r="J86">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>6150</v>
       </c>
@@ -4918,8 +5443,14 @@
       <c r="H87">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>500</v>
+      </c>
+      <c r="J87">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5750</v>
       </c>
@@ -4944,8 +5475,14 @@
       <c r="H88">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>500</v>
+      </c>
+      <c r="J88">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5500</v>
       </c>
@@ -4970,8 +5507,14 @@
       <c r="H89">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>500</v>
+      </c>
+      <c r="J89">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5750</v>
       </c>
@@ -4996,8 +5539,14 @@
       <c r="H90">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>500</v>
+      </c>
+      <c r="J90">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6075</v>
       </c>
@@ -5022,8 +5571,14 @@
       <c r="H91">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>500</v>
+      </c>
+      <c r="J91">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>6400</v>
       </c>
@@ -5048,8 +5603,14 @@
       <c r="H92">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>500</v>
+      </c>
+      <c r="J92">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6025</v>
       </c>
@@ -5074,8 +5635,14 @@
       <c r="H93">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>500</v>
+      </c>
+      <c r="J93">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5650</v>
       </c>
@@ -5100,8 +5667,14 @@
       <c r="H94">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>500</v>
+      </c>
+      <c r="J94">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5750</v>
       </c>
@@ -5126,8 +5699,14 @@
       <c r="H95">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>500</v>
+      </c>
+      <c r="J95">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5800</v>
       </c>
@@ -5152,8 +5731,14 @@
       <c r="H96">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>500</v>
+      </c>
+      <c r="J96">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5850</v>
       </c>
@@ -5177,6 +5762,12 @@
       </c>
       <c r="H97">
         <v>95</v>
+      </c>
+      <c r="I97">
+        <v>500</v>
+      </c>
+      <c r="J97">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\microgridOptimalDispatch-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intergated Energy System\microgridOptimalDispatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD96EC3-3204-4E69-B270-3D6A3E4B8AB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94721025-FF56-4C0F-B48E-F26F0F93AE38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2655,7 +2655,7 @@
   <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I97"/>
+      <selection activeCell="J2" sqref="J2:J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
